--- a/miks.xlsx
+++ b/miks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="263">
   <si>
     <t>клиент</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Лобанов Евгений Александрович ИП г.Комсомольск, работают от другой клиники</t>
   </si>
   <si>
-    <t>СК Стоматологический центр Стом. клиника "Зелёное Яблоко" ООО г.Белогорск</t>
+    <t xml:space="preserve">СК Стоматологический центр Стом. клиника "Зелёное Яблоко" ООО г.Белогорск </t>
   </si>
   <si>
     <t>Стомадент ООО г.Хабаровск</t>
@@ -52,7 +52,7 @@
     <t>Здоровье ООО г.Свободный</t>
   </si>
   <si>
-    <t>МАХАОН ООО Еврейская область п.Николаевка</t>
+    <t>МАХАОН ООО  Еврейская область п.Николаевка</t>
   </si>
   <si>
     <t>Дент-Восток СРП ООО, г.Хабаровск</t>
@@ -64,7 +64,7 @@
     <t>Дантист ООО, г.Ванино</t>
   </si>
   <si>
-    <t>Нео Дентал ООО г.Советская Гавань</t>
+    <t>Нео Дентал ООО  г.Советская Гавань</t>
   </si>
   <si>
     <t>Белый клык ООО, г.Хабаровск</t>
@@ -85,13 +85,13 @@
     <t>Дантист, ООО г. Ванино (Комсомольск)</t>
   </si>
   <si>
-    <t>ПрогрессМед ООО г.Хабаровск. Клиника Техмедсервиса Конкурента</t>
+    <t>ПрогрессМед ООО  г.Хабаровск. Клиника Техмедсервиса Конкурента</t>
   </si>
   <si>
     <t>Корона-Стом, ООО г.Хабаровск</t>
   </si>
   <si>
-    <t>Дентал-Вита ООО г.Советская Гавань</t>
+    <t>Дентал-Вита ООО  г.Советская Гавань</t>
   </si>
   <si>
     <t>Эдем ООО, г. Комсомольск-на-Амуре</t>
@@ -109,7 +109,7 @@
     <t>СОФИ-ДЕНТ ООО г. Благовещенск</t>
   </si>
   <si>
-    <t>Чурилов Степан Константинович ИП г.Комсомольск-на Амуре</t>
+    <t>Чурилов Степан Константинович ИП  г.Комсомольск-на Амуре</t>
   </si>
   <si>
     <t>Нью-Дент ООО п.Приамурский</t>
@@ -118,13 +118,13 @@
     <t>Импульс ООО г.Хабаровск "Биодент"</t>
   </si>
   <si>
-    <t>Олиус г. Комсомольск-на-Амуре</t>
+    <t>Олиус  г. Комсомольск-на-Амуре</t>
   </si>
   <si>
     <t>СофАлекс ООО Хабаровский край</t>
   </si>
   <si>
-    <t>Доктор ООО г.Хабаровск</t>
+    <t>Доктор  ООО г.Хабаровск</t>
   </si>
   <si>
     <t>Зубная Фея ООО, г.Хабаровск</t>
@@ -151,13 +151,13 @@
     <t>ОРТОДЕНТ ООО г.Комсомольск</t>
   </si>
   <si>
-    <t>МЕДИКАЛ ГРУПП ООО г.Хабаровск</t>
-  </si>
-  <si>
-    <t>СК Здоровье Плюс г. Белогорск</t>
-  </si>
-  <si>
-    <t>Поленова Инна Алексеевна п.Ванино</t>
+    <t>МЕДИКАЛ ГРУПП ООО  г.Хабаровск</t>
+  </si>
+  <si>
+    <t>СК Здоровье Плюс   г. Белогорск</t>
+  </si>
+  <si>
+    <t>Поленова Инна Алексеевна  п.Ванино</t>
   </si>
   <si>
     <t>Генезис-Восток ООО г.Хабаровск</t>
@@ -181,7 +181,7 @@
     <t>Вика-Дент, г.Солнечный</t>
   </si>
   <si>
-    <t>Трио ООО, г.Хабаровск,</t>
+    <t xml:space="preserve">Трио ООО, г.Хабаровск, </t>
   </si>
   <si>
     <t>Стоматология Твой доктор, г. Хабаровск</t>
@@ -190,7 +190,7 @@
     <t>Лайнер-Дент ООО, г.Хабаровск</t>
   </si>
   <si>
-    <t>Шаркова Марина Александровна Индивидуальный предприниматель г.Хабаровск, ул.Большая,10/81</t>
+    <t>Шаркова Марина Александровна Индивидуальный  предприниматель г.Хабаровск, ул.Большая,10/81</t>
   </si>
   <si>
     <t>Авиценна ООО г.Хабаровск.</t>
@@ -217,7 +217,7 @@
     <t>Альфа-Стом ООО, г.Хабаровск</t>
   </si>
   <si>
-    <t>Вита-Дент ООО п.Ванино</t>
+    <t>Вита-Дент  ООО п.Ванино</t>
   </si>
   <si>
     <t>Клиника Стив г.Благовещенск,</t>
@@ -226,7 +226,7 @@
     <t>Эстомика ООО г.Хабаровск</t>
   </si>
   <si>
-    <t>Нью Смайл г.Хабаровск, работают по наличию Клиентов</t>
+    <t>Нью Смайл  г.Хабаровск, работают по наличию Клиентов</t>
   </si>
   <si>
     <t>АБ, ООО г.Хабаровск</t>
@@ -250,6 +250,45 @@
     <t>Наша Клиника-Дент ООО г.Хабаровск</t>
   </si>
   <si>
+    <t>ЗТ лаборатория Назарова ООО г.Хабаровск</t>
+  </si>
+  <si>
+    <t>Кузич Степан Николаевич г.Хабаровск</t>
+  </si>
+  <si>
+    <t>Палитра ДВ ООО, г.Хабаровск</t>
+  </si>
+  <si>
+    <t>Маев Александр Семенович г.Хабаровск</t>
+  </si>
+  <si>
+    <t>Щёкин Артем Евгеньевич  г.Хабаровск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сухова Яна Анатольевна, г.Хабаровск, </t>
+  </si>
+  <si>
+    <t>Комлев Юрий Юрьевич  г.Хабаровск</t>
+  </si>
+  <si>
+    <t>Раскошнов Андрей Владимирович ИП г.Хабаровск</t>
+  </si>
+  <si>
+    <t>Шевченко Сергей Леонидович ИП</t>
+  </si>
+  <si>
+    <t>Радутная Елена, только литьё</t>
+  </si>
+  <si>
+    <t>Балданов Батор Солбонович ,г.Хабаровск, ул Интернациональная 23</t>
+  </si>
+  <si>
+    <t>Семченко Виталий Викторович, г.Хабаровск</t>
+  </si>
+  <si>
+    <t>Петров Евгений Михайлович г. Хабаровск</t>
+  </si>
+  <si>
     <t>Стоматология для всей семьи ООО г.Биробиджан</t>
   </si>
   <si>
@@ -301,7 +340,7 @@
     <t>Да Винчи, г. Хабаровск</t>
   </si>
   <si>
-    <t>Вика-Дент ДВ ООО г.Хабаровск</t>
+    <t>Вика-Дент ДВ ООО  г.Хабаровск</t>
   </si>
   <si>
     <t>Дантист ООО, г.Комсомольск-на-Амуре, Проспект мира 47</t>
@@ -382,10 +421,10 @@
     <t>Коралл ООО г.Биробиджан</t>
   </si>
   <si>
-    <t>ИдентАс ООО, г.Хабаровск</t>
-  </si>
-  <si>
-    <t>Зубная Фея г.Комсомольск-на-Амуре</t>
+    <t>ИдентАс  ООО, г.Хабаровск</t>
+  </si>
+  <si>
+    <t>Зубная Фея  г.Комсомольск-на-Амуре</t>
   </si>
   <si>
     <t>Эстетик ООО г.Хабаровск</t>
@@ -433,13 +472,13 @@
     <t>Экстра-стом ООО г.Благовещенск</t>
   </si>
   <si>
-    <t>ВМГ ООО г.Хабаровск пер.Дзержинского, 11В.</t>
+    <t>ВМГ ООО  г.Хабаровск   пер.Дзержинского, 11В.</t>
   </si>
   <si>
     <t>Стоматология Михальского ООО г.Благовещенск</t>
   </si>
   <si>
-    <t>Бриллиантовый стиль + ООО г.Хабаровск,</t>
+    <t xml:space="preserve">Бриллиантовый стиль + ООО г.Хабаровск, </t>
   </si>
   <si>
     <t>Скайс ООО г.Благовещенск</t>
@@ -451,7 +490,7 @@
     <t>КОНРАД, ООО г.Хабаровск</t>
   </si>
   <si>
-    <t>Дент ООО,г. Благовещенск,</t>
+    <t xml:space="preserve">Дент ООО,г. Благовещенск, </t>
   </si>
   <si>
     <t>Стоматолог и Я г.Свободный</t>
@@ -475,7 +514,7 @@
     <t>Пятёрка ООО, г.Хабаровск</t>
   </si>
   <si>
-    <t>Статус ООО, г.Хабаровск, работают по записи</t>
+    <t xml:space="preserve">Статус ООО, г.Хабаровск, работают по записи </t>
   </si>
   <si>
     <t>СТАТУС-ДЕНТ ООО г.Благовещенск</t>
@@ -487,16 +526,40 @@
     <t>Стомсмайл ООО г.Хабаровск</t>
   </si>
   <si>
-    <t>Стомэкс ООО г.Хабаровск ,</t>
-  </si>
-  <si>
-    <t>Татьяна ООО, г.Хабаровск</t>
+    <t xml:space="preserve">Стомэкс ООО г.Хабаровск , </t>
+  </si>
+  <si>
+    <t>Татьяна ООО,  г.Хабаровск</t>
+  </si>
+  <si>
+    <t>Гавриленко Евгений Викторович ИП, г.Благовещенск</t>
+  </si>
+  <si>
+    <t>Савенко Виктор Александрович г. Благовещенск</t>
+  </si>
+  <si>
+    <t>Саркисян Роланд Владимирович ИП г.Благовещенск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бучацкая Ольга Геннадьевна ИП г. Хабаровск </t>
+  </si>
+  <si>
+    <t>РОЖКОВ ВЛАДИМИР ВИКТОРОВИЧ ИП, г.Хабаровск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Птица Юлия Петровна ИП г.Хабаровск </t>
+  </si>
+  <si>
+    <t>Альмакоб ООО г.Хабаровск</t>
+  </si>
+  <si>
+    <t>Фандо Евгений Петрович ИП, г.Хабаровск</t>
   </si>
   <si>
     <t>ОСА-Дент, г. Николаевск-на-Амуре</t>
   </si>
   <si>
-    <t>Астра-мед ООО г.Хабаровск</t>
+    <t>Астра-мед  ООО г.Хабаровск</t>
   </si>
   <si>
     <t>Мастера ООО г. Благовещенск</t>
@@ -550,7 +613,7 @@
     <t>АН-2 ООО г.Комсомольск-на-Амуре, сами с москвы закупают</t>
   </si>
   <si>
-    <t>Форттрейд ООО, г.Хабаровск, Большая 93. Клиника Головная</t>
+    <t>Форттрейд  ООО,  г.Хабаровск, Большая 93. Клиника  Головная</t>
   </si>
   <si>
     <t>ЦСОиЭС ООО г.Хабаровск, (OLD Dent) ул.Пушкина,50</t>
@@ -595,7 +658,7 @@
     <t>АюрДент ООО г.Хабаровск</t>
   </si>
   <si>
-    <t>Золотое правило ООО, г.Хабаровск</t>
+    <t>Золотое правило ООО,  г.Хабаровск</t>
   </si>
   <si>
     <t>Улыбка ООО г. Хабаровск</t>
@@ -604,7 +667,7 @@
     <t>СКАЛА ООО (уссури) г.Хабаровск</t>
   </si>
   <si>
-    <t>Апекс ООО г.Благовещенск</t>
+    <t xml:space="preserve">Апекс ООО г.Благовещенск </t>
   </si>
   <si>
     <t>Студия Современной Стоматологии ООО, г.Хабаровск</t>
@@ -613,10 +676,10 @@
     <t>СТОМУС, ООО г. Комсомольск-на-Амуре</t>
   </si>
   <si>
-    <t>МилаСтом ООО г.Хабаровск</t>
-  </si>
-  <si>
-    <t>СпаРта ООО г.Хабаровск, Восточное шоссе, 41 (Авторская стоматология МЕЛ)</t>
+    <t xml:space="preserve">МилаСтом ООО г.Хабаровск </t>
+  </si>
+  <si>
+    <t>СпаРта ООО г.Хабаровск, Восточное шоссе, 41  (Авторская стоматология МЕЛ)</t>
   </si>
   <si>
     <t>Имплантмед (галерея улыбок) ООО, г. Хабаровск</t>
@@ -658,7 +721,7 @@
     <t>Реалитистом ООО г.Благовещенск</t>
   </si>
   <si>
-    <t>Радикс С (Аврора-Стом) ООО г.Хабаровск</t>
+    <t>Радикс С  (Аврора-Стом) ООО г.Хабаровск</t>
   </si>
   <si>
     <t>АрхДЕНТ г.Благовещенск</t>
@@ -667,7 +730,7 @@
     <t>Опанасюк и Партнеры ООО г. Хабаровск</t>
   </si>
   <si>
-    <t>Империя красоты ООО г.Хабаровск</t>
+    <t>Империя красоты  ООО г.Хабаровск</t>
   </si>
   <si>
     <t>Новая стоматология ООО г.Хабаровск.</t>
@@ -715,1225 +778,31 @@
     <t>Улыбка Плюс ООО г.Советская Гавань</t>
   </si>
   <si>
-    <t>Форттрейд ООО, г.Хабаровск Сеть клиник</t>
+    <t>Форттрейд  ООО,  г.Хабаровск Сеть клиник</t>
   </si>
   <si>
     <t>Эстелайт ДВ ООО г. Благовещенск</t>
   </si>
   <si>
-    <t xml:space="preserve"> 855 </t>
-  </si>
-  <si>
-    <t>935 679,4</t>
-  </si>
-  <si>
-    <t>716 589</t>
-  </si>
-  <si>
-    <t>712 288</t>
-  </si>
-  <si>
-    <t>685 871,3</t>
-  </si>
-  <si>
-    <t>634 000</t>
-  </si>
-  <si>
-    <t>601 150</t>
-  </si>
-  <si>
-    <t>572 277</t>
-  </si>
-  <si>
-    <t>551 035</t>
-  </si>
-  <si>
-    <t>539 421</t>
-  </si>
-  <si>
-    <t>445 548</t>
-  </si>
-  <si>
-    <t>434 549</t>
-  </si>
-  <si>
-    <t>419 381</t>
-  </si>
-  <si>
-    <t>416 799</t>
-  </si>
-  <si>
-    <t>385 734,4</t>
-  </si>
-  <si>
-    <t>346 548</t>
-  </si>
-  <si>
-    <t>321 558</t>
-  </si>
-  <si>
-    <t>292 602</t>
-  </si>
-  <si>
-    <t>283 900</t>
-  </si>
-  <si>
-    <t>282 557,25</t>
-  </si>
-  <si>
-    <t>261 201</t>
-  </si>
-  <si>
-    <t>247 458</t>
-  </si>
-  <si>
-    <t>234 873</t>
-  </si>
-  <si>
-    <t>221 334</t>
-  </si>
-  <si>
-    <t>188 429</t>
-  </si>
-  <si>
-    <t>173 421</t>
-  </si>
-  <si>
-    <t>169 143</t>
-  </si>
-  <si>
-    <t>159 128</t>
-  </si>
-  <si>
-    <t>152 632</t>
-  </si>
-  <si>
-    <t>144 206</t>
-  </si>
-  <si>
-    <t>142 862</t>
-  </si>
-  <si>
-    <t>133 951</t>
-  </si>
-  <si>
-    <t>129 199</t>
-  </si>
-  <si>
-    <t>128 594</t>
-  </si>
-  <si>
-    <t>126 349,8</t>
-  </si>
-  <si>
-    <t>110 881</t>
-  </si>
-  <si>
-    <t>102 021</t>
-  </si>
-  <si>
-    <t>92 641</t>
-  </si>
-  <si>
-    <t>92 151</t>
-  </si>
-  <si>
-    <t>91 481</t>
-  </si>
-  <si>
-    <t>85 933</t>
-  </si>
-  <si>
-    <t>82 212</t>
-  </si>
-  <si>
-    <t>77 596</t>
-  </si>
-  <si>
-    <t>73 493</t>
-  </si>
-  <si>
-    <t>73 393</t>
-  </si>
-  <si>
-    <t>73 370</t>
-  </si>
-  <si>
-    <t>68 602</t>
-  </si>
-  <si>
-    <t>64 165</t>
-  </si>
-  <si>
-    <t>42 151</t>
-  </si>
-  <si>
-    <t>56 901</t>
-  </si>
-  <si>
-    <t>50 608</t>
-  </si>
-  <si>
-    <t>48 618</t>
-  </si>
-  <si>
-    <t>47 750,99</t>
-  </si>
-  <si>
-    <t>29 677</t>
-  </si>
-  <si>
-    <t>26 848</t>
-  </si>
-  <si>
-    <t>26 316</t>
-  </si>
-  <si>
-    <t>18 585</t>
-  </si>
-  <si>
-    <t>12 586</t>
-  </si>
-  <si>
-    <t>9 028</t>
-  </si>
-  <si>
-    <t>8 563</t>
-  </si>
-  <si>
-    <t>7 732</t>
-  </si>
-  <si>
-    <t>5 715</t>
-  </si>
-  <si>
-    <t>4 141</t>
-  </si>
-  <si>
-    <t>4 085</t>
-  </si>
-  <si>
-    <t>3 041</t>
-  </si>
-  <si>
-    <t>2 895</t>
-  </si>
-  <si>
-    <t>2 730</t>
-  </si>
-  <si>
-    <t>2 283</t>
-  </si>
-  <si>
-    <t>2 245,5</t>
-  </si>
-  <si>
-    <t>219 410</t>
-  </si>
-  <si>
-    <t>465 280</t>
-  </si>
-  <si>
-    <t>2 265 063,01</t>
-  </si>
-  <si>
-    <t>958 162</t>
-  </si>
-  <si>
-    <t>850 270</t>
-  </si>
-  <si>
-    <t>719 310</t>
-  </si>
-  <si>
-    <t>630 865</t>
-  </si>
-  <si>
-    <t>626 105</t>
-  </si>
-  <si>
-    <t>586 888,4</t>
-  </si>
-  <si>
-    <t>486 162,5</t>
-  </si>
-  <si>
-    <t>434 577</t>
-  </si>
-  <si>
-    <t>413 627</t>
-  </si>
-  <si>
-    <t>403 915</t>
-  </si>
-  <si>
-    <t>383 730</t>
-  </si>
-  <si>
-    <t>383 648</t>
-  </si>
-  <si>
-    <t>339 329</t>
-  </si>
-  <si>
-    <t>334 191</t>
-  </si>
-  <si>
-    <t>332 874,02</t>
-  </si>
-  <si>
-    <t>326 934</t>
-  </si>
-  <si>
-    <t>297 583,5</t>
-  </si>
-  <si>
-    <t>272 482,03</t>
-  </si>
-  <si>
-    <t>270 139</t>
-  </si>
-  <si>
-    <t>259 662</t>
-  </si>
-  <si>
-    <t>250 651</t>
-  </si>
-  <si>
-    <t>234 529</t>
-  </si>
-  <si>
-    <t>227 090</t>
-  </si>
-  <si>
-    <t>219 214</t>
-  </si>
-  <si>
-    <t>218 793</t>
-  </si>
-  <si>
-    <t>216 231</t>
-  </si>
-  <si>
-    <t>197 241</t>
-  </si>
-  <si>
-    <t>173 707</t>
-  </si>
-  <si>
-    <t>164 289</t>
-  </si>
-  <si>
-    <t>133 831</t>
-  </si>
-  <si>
-    <t>127 313</t>
-  </si>
-  <si>
-    <t>101 515</t>
-  </si>
-  <si>
-    <t>93 515</t>
-  </si>
-  <si>
-    <t>91 298</t>
-  </si>
-  <si>
-    <t>90 000</t>
-  </si>
-  <si>
-    <t>509 441</t>
-  </si>
-  <si>
-    <t>78 830</t>
-  </si>
-  <si>
-    <t>75 162</t>
-  </si>
-  <si>
-    <t>248 551</t>
-  </si>
-  <si>
-    <t>74 222</t>
-  </si>
-  <si>
-    <t>71 223</t>
-  </si>
-  <si>
-    <t>57 546</t>
-  </si>
-  <si>
-    <t>53 708</t>
-  </si>
-  <si>
-    <t>53 664</t>
-  </si>
-  <si>
-    <t>43 719</t>
-  </si>
-  <si>
-    <t>42 767</t>
-  </si>
-  <si>
-    <t>35 793</t>
-  </si>
-  <si>
-    <t>34 001</t>
-  </si>
-  <si>
-    <t>31 118</t>
-  </si>
-  <si>
-    <t>27 645</t>
-  </si>
-  <si>
-    <t>26 500</t>
-  </si>
-  <si>
-    <t>365 162</t>
-  </si>
-  <si>
-    <t>24 548</t>
-  </si>
-  <si>
-    <t>24 533</t>
-  </si>
-  <si>
-    <t>16 888</t>
-  </si>
-  <si>
-    <t>9 519</t>
-  </si>
-  <si>
-    <t>8 818</t>
-  </si>
-  <si>
-    <t>8 815</t>
-  </si>
-  <si>
-    <t>7 881</t>
-  </si>
-  <si>
-    <t>7 122</t>
-  </si>
-  <si>
-    <t>6 900</t>
-  </si>
-  <si>
-    <t>325 886</t>
-  </si>
-  <si>
-    <t>6 531</t>
-  </si>
-  <si>
-    <t>6 027</t>
-  </si>
-  <si>
-    <t>5 921</t>
-  </si>
-  <si>
-    <t>5 100</t>
-  </si>
-  <si>
-    <t>4 993</t>
-  </si>
-  <si>
-    <t>4 980</t>
-  </si>
-  <si>
-    <t>4 261</t>
-  </si>
-  <si>
-    <t>3 900</t>
-  </si>
-  <si>
-    <t>3 200,7</t>
-  </si>
-  <si>
-    <t>2 750</t>
-  </si>
-  <si>
-    <t>1 929</t>
-  </si>
-  <si>
-    <t>275 219</t>
-  </si>
-  <si>
-    <t>503 277</t>
-  </si>
-  <si>
-    <t>1 339 899</t>
-  </si>
-  <si>
-    <t>744 420</t>
-  </si>
-  <si>
-    <t>599 558</t>
-  </si>
-  <si>
-    <t>576 505</t>
-  </si>
-  <si>
-    <t>573 500</t>
-  </si>
-  <si>
-    <t>485 955,38</t>
-  </si>
-  <si>
-    <t>450 668</t>
-  </si>
-  <si>
-    <t>450 101</t>
-  </si>
-  <si>
-    <t>415 179</t>
-  </si>
-  <si>
-    <t>402 081</t>
-  </si>
-  <si>
-    <t>363 034</t>
-  </si>
-  <si>
-    <t>354 418,31</t>
-  </si>
-  <si>
-    <t>338 770,02</t>
-  </si>
-  <si>
-    <t>337 533</t>
-  </si>
-  <si>
-    <t>317 816</t>
-  </si>
-  <si>
-    <t>307 419</t>
-  </si>
-  <si>
-    <t>301 891</t>
-  </si>
-  <si>
-    <t>298 342</t>
-  </si>
-  <si>
-    <t>287 212</t>
-  </si>
-  <si>
-    <t>279 386,91</t>
-  </si>
-  <si>
-    <t>241 138,38</t>
-  </si>
-  <si>
-    <t>224 526,7</t>
-  </si>
-  <si>
-    <t>191 431</t>
-  </si>
-  <si>
-    <t>180 697</t>
-  </si>
-  <si>
-    <t>176 670</t>
-  </si>
-  <si>
-    <t>160 176</t>
-  </si>
-  <si>
-    <t>157 718</t>
-  </si>
-  <si>
-    <t>156 640</t>
-  </si>
-  <si>
-    <t>139 350</t>
-  </si>
-  <si>
-    <t>136 199</t>
-  </si>
-  <si>
-    <t>131 482</t>
-  </si>
-  <si>
-    <t>125 480</t>
-  </si>
-  <si>
-    <t>108 491</t>
-  </si>
-  <si>
-    <t>107 528</t>
-  </si>
-  <si>
-    <t>104 742</t>
-  </si>
-  <si>
-    <t>102 327</t>
-  </si>
-  <si>
-    <t>95 797</t>
-  </si>
-  <si>
-    <t>87 803</t>
-  </si>
-  <si>
-    <t>78 454</t>
-  </si>
-  <si>
-    <t>76 906</t>
-  </si>
-  <si>
-    <t>72 555</t>
-  </si>
-  <si>
-    <t>72 268,8</t>
-  </si>
-  <si>
-    <t>68 922</t>
-  </si>
-  <si>
-    <t>64 533</t>
-  </si>
-  <si>
-    <t>62 437</t>
-  </si>
-  <si>
-    <t>59 295</t>
-  </si>
-  <si>
-    <t>58 879</t>
-  </si>
-  <si>
-    <t>58 175</t>
-  </si>
-  <si>
-    <t>56 398</t>
-  </si>
-  <si>
-    <t>54 600</t>
-  </si>
-  <si>
-    <t>45 738</t>
-  </si>
-  <si>
-    <t>42 440</t>
-  </si>
-  <si>
-    <t>34 243</t>
-  </si>
-  <si>
-    <t>27 800</t>
-  </si>
-  <si>
-    <t>27 770</t>
-  </si>
-  <si>
-    <t>26 535</t>
-  </si>
-  <si>
-    <t>22 864</t>
-  </si>
-  <si>
-    <t>21 635</t>
-  </si>
-  <si>
-    <t>14 914</t>
-  </si>
-  <si>
-    <t>13 288</t>
-  </si>
-  <si>
-    <t>9 526</t>
-  </si>
-  <si>
-    <t>2 544 813</t>
-  </si>
-  <si>
-    <t>657 519</t>
-  </si>
-  <si>
-    <t>181 349,01</t>
-  </si>
-  <si>
-    <t>624 043</t>
-  </si>
-  <si>
-    <t>620 380</t>
-  </si>
-  <si>
-    <t>129 658</t>
-  </si>
-  <si>
-    <t>522 187</t>
-  </si>
-  <si>
-    <t>337 257</t>
-  </si>
-  <si>
-    <t>277 737</t>
-  </si>
-  <si>
-    <t>93 353</t>
-  </si>
-  <si>
-    <t>393 384</t>
-  </si>
-  <si>
-    <t>231 473</t>
-  </si>
-  <si>
-    <t>689 833,2</t>
-  </si>
-  <si>
-    <t>266 843</t>
-  </si>
-  <si>
-    <t>493 910</t>
-  </si>
-  <si>
-    <t>710 698</t>
-  </si>
-  <si>
-    <t>283 371</t>
-  </si>
-  <si>
-    <t>318 395</t>
-  </si>
-  <si>
-    <t>117 370</t>
-  </si>
-  <si>
-    <t>448 826</t>
-  </si>
-  <si>
-    <t>60 357</t>
-  </si>
-  <si>
-    <t>456 060</t>
-  </si>
-  <si>
-    <t>17 590</t>
-  </si>
-  <si>
-    <t>171 831</t>
-  </si>
-  <si>
-    <t>99 654</t>
-  </si>
-  <si>
-    <t>129 872</t>
-  </si>
-  <si>
-    <t>295 459,4</t>
-  </si>
-  <si>
-    <t>198 918</t>
-  </si>
-  <si>
-    <t>5 008</t>
-  </si>
-  <si>
-    <t>77 799</t>
-  </si>
-  <si>
-    <t>407 824</t>
-  </si>
-  <si>
-    <t>413 824</t>
-  </si>
-  <si>
-    <t>73 837</t>
-  </si>
-  <si>
-    <t>14 400</t>
-  </si>
-  <si>
-    <t>155 630</t>
-  </si>
-  <si>
-    <t>121 981</t>
-  </si>
-  <si>
-    <t>40 894</t>
-  </si>
-  <si>
-    <t>190 648</t>
-  </si>
-  <si>
-    <t>10 806</t>
-  </si>
-  <si>
-    <t>14 729</t>
-  </si>
-  <si>
-    <t>230 179</t>
-  </si>
-  <si>
-    <t>88 947</t>
-  </si>
-  <si>
-    <t>97 820</t>
-  </si>
-  <si>
-    <t>94 537</t>
-  </si>
-  <si>
-    <t>113 512</t>
-  </si>
-  <si>
-    <t>38 884</t>
-  </si>
-  <si>
-    <t>100 444</t>
-  </si>
-  <si>
-    <t>65 023</t>
-  </si>
-  <si>
-    <t>71 444</t>
-  </si>
-  <si>
-    <t>93 058</t>
-  </si>
-  <si>
-    <t>126 134</t>
-  </si>
-  <si>
-    <t>115 670</t>
-  </si>
-  <si>
-    <t>25 384</t>
-  </si>
-  <si>
-    <t>36 878</t>
-  </si>
-  <si>
-    <t>4 073</t>
-  </si>
-  <si>
-    <t>33 681</t>
-  </si>
-  <si>
-    <t>47 595</t>
-  </si>
-  <si>
-    <t>91 552</t>
-  </si>
-  <si>
-    <t>98 308</t>
-  </si>
-  <si>
-    <t>228 298</t>
-  </si>
-  <si>
-    <t>201 135</t>
-  </si>
-  <si>
-    <t>1 820 026</t>
-  </si>
-  <si>
-    <t>606 600</t>
-  </si>
-  <si>
-    <t>942 612</t>
-  </si>
-  <si>
-    <t>888 061</t>
-  </si>
-  <si>
-    <t>843 052</t>
-  </si>
-  <si>
-    <t>342 399</t>
-  </si>
-  <si>
-    <t>843 383</t>
-  </si>
-  <si>
-    <t>596 894</t>
-  </si>
-  <si>
-    <t>474 537</t>
-  </si>
-  <si>
-    <t>454 228</t>
-  </si>
-  <si>
-    <t>355 152</t>
-  </si>
-  <si>
-    <t>416 406</t>
-  </si>
-  <si>
-    <t>181 146</t>
-  </si>
-  <si>
-    <t>869 647,59</t>
-  </si>
-  <si>
-    <t>410 812</t>
-  </si>
-  <si>
-    <t>274 830</t>
-  </si>
-  <si>
-    <t>151 504</t>
-  </si>
-  <si>
-    <t>440 770</t>
-  </si>
-  <si>
-    <t>315 213</t>
-  </si>
-  <si>
-    <t>140 494</t>
-  </si>
-  <si>
-    <t>188 105</t>
-  </si>
-  <si>
-    <t>65 915</t>
-  </si>
-  <si>
-    <t>137 483</t>
-  </si>
-  <si>
-    <t>329 626</t>
-  </si>
-  <si>
-    <t>149 383,36</t>
-  </si>
-  <si>
-    <t>187 161</t>
-  </si>
-  <si>
-    <t>240 674</t>
-  </si>
-  <si>
-    <t>139 695</t>
-  </si>
-  <si>
-    <t>188 919</t>
-  </si>
-  <si>
-    <t>57 852</t>
-  </si>
-  <si>
-    <t>64 596</t>
-  </si>
-  <si>
-    <t>118 634</t>
-  </si>
-  <si>
-    <t>258 653</t>
-  </si>
-  <si>
-    <t>27 900</t>
-  </si>
-  <si>
-    <t>65 465</t>
-  </si>
-  <si>
-    <t>57 277</t>
-  </si>
-  <si>
-    <t>1 035 386</t>
-  </si>
-  <si>
-    <t>219 540</t>
-  </si>
-  <si>
-    <t>91 246</t>
-  </si>
-  <si>
-    <t>641 394</t>
-  </si>
-  <si>
-    <t>182 532</t>
-  </si>
-  <si>
-    <t>283 565</t>
-  </si>
-  <si>
-    <t>86 503</t>
-  </si>
-  <si>
-    <t>62 584</t>
-  </si>
-  <si>
-    <t>248 573</t>
-  </si>
-  <si>
-    <t>8 786</t>
-  </si>
-  <si>
-    <t>133 262</t>
-  </si>
-  <si>
-    <t>32 887</t>
-  </si>
-  <si>
-    <t>122 110</t>
-  </si>
-  <si>
-    <t>13 800</t>
-  </si>
-  <si>
-    <t>57 514</t>
-  </si>
-  <si>
-    <t>36 691</t>
-  </si>
-  <si>
-    <t>251 469</t>
-  </si>
-  <si>
-    <t>53 930</t>
-  </si>
-  <si>
-    <t>45 660</t>
-  </si>
-  <si>
-    <t>356 532</t>
-  </si>
-  <si>
-    <t>13 086</t>
-  </si>
-  <si>
-    <t>108 317</t>
-  </si>
-  <si>
-    <t>183 582</t>
-  </si>
-  <si>
-    <t>4 200</t>
-  </si>
-  <si>
-    <t>25 145</t>
-  </si>
-  <si>
-    <t>1 400</t>
-  </si>
-  <si>
-    <t>72 377</t>
-  </si>
-  <si>
-    <t>1 054 131</t>
-  </si>
-  <si>
-    <t>355 101</t>
-  </si>
-  <si>
-    <t>150 303</t>
-  </si>
-  <si>
-    <t>5 250</t>
-  </si>
-  <si>
-    <t>609 773</t>
-  </si>
-  <si>
-    <t>434 156</t>
-  </si>
-  <si>
-    <t>392 415</t>
-  </si>
-  <si>
-    <t>1 285 915</t>
-  </si>
-  <si>
-    <t>480 245</t>
-  </si>
-  <si>
-    <t>226 682</t>
-  </si>
-  <si>
-    <t>530 854</t>
-  </si>
-  <si>
-    <t>319 588</t>
-  </si>
-  <si>
-    <t>308 365</t>
-  </si>
-  <si>
-    <t>195 142</t>
-  </si>
-  <si>
-    <t>107 648</t>
-  </si>
-  <si>
-    <t>175 367</t>
-  </si>
-  <si>
-    <t>319 767</t>
-  </si>
-  <si>
-    <t>576 026</t>
-  </si>
-  <si>
-    <t>300 244</t>
-  </si>
-  <si>
-    <t>163 131</t>
-  </si>
-  <si>
-    <t>64 186</t>
-  </si>
-  <si>
-    <t>182 979</t>
-  </si>
-  <si>
-    <t>306 935</t>
-  </si>
-  <si>
-    <t>211 906</t>
-  </si>
-  <si>
-    <t>177 428</t>
-  </si>
-  <si>
-    <t>45 921</t>
-  </si>
-  <si>
-    <t>295 707</t>
-  </si>
-  <si>
-    <t>171 046</t>
-  </si>
-  <si>
-    <t>112 402</t>
-  </si>
-  <si>
-    <t>535 404</t>
-  </si>
-  <si>
-    <t>352 155,08</t>
-  </si>
-  <si>
-    <t>612 565</t>
-  </si>
-  <si>
-    <t>32 522</t>
-  </si>
-  <si>
-    <t>716 335</t>
-  </si>
-  <si>
-    <t>230 722</t>
-  </si>
-  <si>
-    <t>154 120</t>
-  </si>
-  <si>
-    <t>171 375</t>
-  </si>
-  <si>
-    <t>140 555</t>
-  </si>
-  <si>
-    <t>345 964</t>
-  </si>
-  <si>
-    <t>63 438</t>
-  </si>
-  <si>
-    <t>154 710</t>
-  </si>
-  <si>
-    <t>213 485</t>
-  </si>
-  <si>
-    <t>314 566</t>
-  </si>
-  <si>
-    <t>98 851</t>
-  </si>
-  <si>
-    <t>216 259</t>
-  </si>
-  <si>
-    <t>266 196</t>
-  </si>
-  <si>
-    <t>50 919</t>
-  </si>
-  <si>
-    <t>159 893</t>
-  </si>
-  <si>
-    <t>231 869</t>
-  </si>
-  <si>
-    <t>45 776</t>
-  </si>
-  <si>
-    <t>98 645</t>
-  </si>
-  <si>
-    <t>134 462</t>
-  </si>
-  <si>
-    <t>43 269</t>
-  </si>
-  <si>
-    <t>45 376</t>
-  </si>
-  <si>
-    <t>24 071</t>
-  </si>
-  <si>
-    <t>205 218</t>
-  </si>
-  <si>
-    <t>241 424</t>
-  </si>
-  <si>
-    <t>97 372</t>
-  </si>
-  <si>
-    <t>114 282</t>
-  </si>
-  <si>
-    <t>332 134</t>
-  </si>
-  <si>
-    <t>78 957</t>
-  </si>
-  <si>
-    <t>77 894</t>
-  </si>
-  <si>
-    <t>43 820</t>
-  </si>
-  <si>
-    <t>30 339</t>
-  </si>
-  <si>
-    <t>147 715</t>
-  </si>
-  <si>
-    <t>385 801</t>
-  </si>
-  <si>
-    <t>185 435</t>
-  </si>
-  <si>
-    <t>8 500</t>
-  </si>
-  <si>
-    <t>16 860</t>
-  </si>
-  <si>
-    <t>124 500</t>
-  </si>
-  <si>
-    <t>201 316</t>
-  </si>
-  <si>
-    <t>30 827</t>
-  </si>
-  <si>
-    <t>42 270</t>
+    <t>Дамиров Рамин Хаким Оглы г.Хабаровск</t>
+  </si>
+  <si>
+    <t>Труханкин Александр Сергеевич г.Благовещенск</t>
+  </si>
+  <si>
+    <t>Стом Шедевр ООО Хабаровск</t>
+  </si>
+  <si>
+    <t>Старкин Константин Андреевич,г. Хабаровск разовый закуп.</t>
+  </si>
+  <si>
+    <t>Базарнов Руслан г.Благовещенск</t>
+  </si>
+  <si>
+    <t>Самарская Н.Д., ИП г.Хабаровск, в предоплату работаем</t>
+  </si>
+  <si>
+    <t>Лавренюк Валерий Анатольевич, г.Хабаровск Пионерская,1</t>
   </si>
 </sst>
 </file>
@@ -2291,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D269"/>
+  <dimension ref="A1:D297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2315,11 +1184,11 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>443</v>
+      <c r="C2">
+        <v>1855434</v>
+      </c>
+      <c r="D2">
+        <v>2544813</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2329,11 +1198,11 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" t="s">
-        <v>444</v>
+      <c r="C3">
+        <v>935679.4</v>
+      </c>
+      <c r="D3">
+        <v>657519</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2343,11 +1212,11 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" t="s">
-        <v>445</v>
+      <c r="C4">
+        <v>716589</v>
+      </c>
+      <c r="D4">
+        <v>181349.01</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2357,11 +1226,11 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" t="s">
-        <v>446</v>
+      <c r="C5">
+        <v>712288</v>
+      </c>
+      <c r="D5">
+        <v>624043</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2371,11 +1240,11 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" t="s">
-        <v>447</v>
+      <c r="C6">
+        <v>685871.3</v>
+      </c>
+      <c r="D6">
+        <v>620380</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2385,11 +1254,11 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" t="s">
-        <v>448</v>
+      <c r="C7">
+        <v>634000</v>
+      </c>
+      <c r="D7">
+        <v>129658</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2399,11 +1268,11 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8" t="s">
-        <v>449</v>
+      <c r="C8">
+        <v>601150</v>
+      </c>
+      <c r="D8">
+        <v>522187</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2413,11 +1282,11 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" t="s">
-        <v>450</v>
+      <c r="C9">
+        <v>572277</v>
+      </c>
+      <c r="D9">
+        <v>339697</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2427,11 +1296,11 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D10" t="s">
-        <v>451</v>
+      <c r="C10">
+        <v>551035</v>
+      </c>
+      <c r="D10">
+        <v>277737</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2441,11 +1310,11 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D11" t="s">
-        <v>452</v>
+      <c r="C11">
+        <v>539421</v>
+      </c>
+      <c r="D11">
+        <v>93353</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2455,11 +1324,11 @@
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D12" t="s">
-        <v>453</v>
+      <c r="C12">
+        <v>445548</v>
+      </c>
+      <c r="D12">
+        <v>393384</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2469,11 +1338,11 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" t="s">
-        <v>454</v>
+      <c r="C13">
+        <v>434549</v>
+      </c>
+      <c r="D13">
+        <v>231473</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2483,11 +1352,11 @@
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
-        <v>247</v>
-      </c>
-      <c r="D14" t="s">
-        <v>455</v>
+      <c r="C14">
+        <v>419381</v>
+      </c>
+      <c r="D14">
+        <v>689833.2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2497,11 +1366,11 @@
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
-        <v>248</v>
-      </c>
-      <c r="D15" t="s">
-        <v>456</v>
+      <c r="C15">
+        <v>416799</v>
+      </c>
+      <c r="D15">
+        <v>266843</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2511,11 +1380,11 @@
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
-        <v>249</v>
-      </c>
-      <c r="D16" t="s">
-        <v>457</v>
+      <c r="C16">
+        <v>385734.4</v>
+      </c>
+      <c r="D16">
+        <v>537318</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2525,11 +1394,11 @@
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D17" t="s">
-        <v>458</v>
+      <c r="C17">
+        <v>346548</v>
+      </c>
+      <c r="D17">
+        <v>710698</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2539,11 +1408,11 @@
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D18" t="s">
-        <v>459</v>
+      <c r="C18">
+        <v>321558</v>
+      </c>
+      <c r="D18">
+        <v>290748</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2553,11 +1422,11 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" t="s">
-        <v>460</v>
+      <c r="C19">
+        <v>292602</v>
+      </c>
+      <c r="D19">
+        <v>318395</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2567,11 +1436,11 @@
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" t="s">
-        <v>461</v>
+      <c r="C20">
+        <v>283900</v>
+      </c>
+      <c r="D20">
+        <v>117370</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2581,11 +1450,11 @@
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
-        <v>254</v>
-      </c>
-      <c r="D21" t="s">
-        <v>462</v>
+      <c r="C21">
+        <v>282557.25</v>
+      </c>
+      <c r="D21">
+        <v>448826</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2595,11 +1464,11 @@
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
-        <v>255</v>
-      </c>
-      <c r="D22" t="s">
-        <v>463</v>
+      <c r="C22">
+        <v>261201</v>
+      </c>
+      <c r="D22">
+        <v>60357</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2609,11 +1478,11 @@
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D23" t="s">
-        <v>464</v>
+      <c r="C23">
+        <v>247458</v>
+      </c>
+      <c r="D23">
+        <v>456060</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2623,11 +1492,11 @@
       <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
-        <v>257</v>
-      </c>
-      <c r="D24" t="s">
-        <v>465</v>
+      <c r="C24">
+        <v>234873</v>
+      </c>
+      <c r="D24">
+        <v>17590</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2637,11 +1506,11 @@
       <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
-        <v>258</v>
-      </c>
-      <c r="D25" t="s">
-        <v>466</v>
+      <c r="C25">
+        <v>221334</v>
+      </c>
+      <c r="D25">
+        <v>171831</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2651,11 +1520,11 @@
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
-        <v>259</v>
-      </c>
-      <c r="D26" t="s">
-        <v>467</v>
+      <c r="C26">
+        <v>188429</v>
+      </c>
+      <c r="D26">
+        <v>99654</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2665,11 +1534,11 @@
       <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
-        <v>260</v>
-      </c>
-      <c r="D27" t="s">
-        <v>468</v>
+      <c r="C27">
+        <v>173421</v>
+      </c>
+      <c r="D27">
+        <v>129872</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2679,11 +1548,11 @@
       <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
-        <v>261</v>
-      </c>
-      <c r="D28" t="s">
-        <v>469</v>
+      <c r="C28">
+        <v>169143</v>
+      </c>
+      <c r="D28">
+        <v>295459.4</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2693,11 +1562,11 @@
       <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C29" t="s">
-        <v>262</v>
-      </c>
-      <c r="D29" t="s">
-        <v>470</v>
+      <c r="C29">
+        <v>159128</v>
+      </c>
+      <c r="D29">
+        <v>198918</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2707,11 +1576,11 @@
       <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="s">
-        <v>263</v>
-      </c>
-      <c r="D30" t="s">
-        <v>471</v>
+      <c r="C30">
+        <v>152632</v>
+      </c>
+      <c r="D30">
+        <v>5008</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2721,11 +1590,11 @@
       <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="C31" t="s">
-        <v>264</v>
-      </c>
-      <c r="D31" t="s">
-        <v>472</v>
+      <c r="C31">
+        <v>144206</v>
+      </c>
+      <c r="D31">
+        <v>77799</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2735,11 +1604,11 @@
       <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" t="s">
-        <v>473</v>
+      <c r="C32">
+        <v>142862</v>
+      </c>
+      <c r="D32">
+        <v>407824</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2749,11 +1618,11 @@
       <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="C33" t="s">
-        <v>266</v>
-      </c>
-      <c r="D33" t="s">
-        <v>474</v>
+      <c r="C33">
+        <v>133951</v>
+      </c>
+      <c r="D33">
+        <v>413824</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2763,11 +1632,11 @@
       <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>267</v>
-      </c>
-      <c r="D34" t="s">
-        <v>475</v>
+      <c r="C34">
+        <v>129199</v>
+      </c>
+      <c r="D34">
+        <v>73837</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2777,11 +1646,11 @@
       <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C35" t="s">
-        <v>268</v>
-      </c>
-      <c r="D35" t="s">
-        <v>476</v>
+      <c r="C35">
+        <v>128594</v>
+      </c>
+      <c r="D35">
+        <v>14400</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2791,11 +1660,11 @@
       <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C36" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" t="s">
-        <v>477</v>
+      <c r="C36">
+        <v>126349.8</v>
+      </c>
+      <c r="D36">
+        <v>155630</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2805,11 +1674,11 @@
       <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="C37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D37" t="s">
-        <v>478</v>
+      <c r="C37">
+        <v>110881</v>
+      </c>
+      <c r="D37">
+        <v>121981</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2819,11 +1688,11 @@
       <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="C38" t="s">
-        <v>271</v>
-      </c>
-      <c r="D38" t="s">
-        <v>479</v>
+      <c r="C38">
+        <v>102021</v>
+      </c>
+      <c r="D38">
+        <v>40894</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2833,11 +1702,11 @@
       <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" t="s">
-        <v>480</v>
+      <c r="C39">
+        <v>92641</v>
+      </c>
+      <c r="D39">
+        <v>190648</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2847,11 +1716,11 @@
       <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="C40" t="s">
-        <v>273</v>
-      </c>
-      <c r="D40" t="s">
-        <v>481</v>
+      <c r="C40">
+        <v>92151</v>
+      </c>
+      <c r="D40">
+        <v>10806</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2861,8 +1730,11 @@
       <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C41" t="s">
-        <v>274</v>
+      <c r="C41">
+        <v>91481</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2872,11 +1744,11 @@
       <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="C42" t="s">
-        <v>275</v>
-      </c>
-      <c r="D42" t="s">
-        <v>482</v>
+      <c r="C42">
+        <v>85933</v>
+      </c>
+      <c r="D42">
+        <v>14729</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2886,11 +1758,11 @@
       <c r="B43" t="s">
         <v>44</v>
       </c>
-      <c r="C43" t="s">
-        <v>276</v>
-      </c>
-      <c r="D43" t="s">
-        <v>483</v>
+      <c r="C43">
+        <v>82212</v>
+      </c>
+      <c r="D43">
+        <v>230179</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2900,11 +1772,11 @@
       <c r="B44" t="s">
         <v>45</v>
       </c>
-      <c r="C44" t="s">
-        <v>277</v>
-      </c>
-      <c r="D44" t="s">
-        <v>484</v>
+      <c r="C44">
+        <v>77596</v>
+      </c>
+      <c r="D44">
+        <v>88947</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2914,11 +1786,11 @@
       <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="C45" t="s">
-        <v>278</v>
-      </c>
-      <c r="D45" t="s">
-        <v>485</v>
+      <c r="C45">
+        <v>73493</v>
+      </c>
+      <c r="D45">
+        <v>97820</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2928,11 +1800,11 @@
       <c r="B46" t="s">
         <v>47</v>
       </c>
-      <c r="C46" t="s">
-        <v>279</v>
-      </c>
-      <c r="D46" t="s">
-        <v>486</v>
+      <c r="C46">
+        <v>73393</v>
+      </c>
+      <c r="D46">
+        <v>94537</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2942,11 +1814,11 @@
       <c r="B47" t="s">
         <v>48</v>
       </c>
-      <c r="C47" t="s">
-        <v>280</v>
-      </c>
-      <c r="D47" t="s">
-        <v>487</v>
+      <c r="C47">
+        <v>73370</v>
+      </c>
+      <c r="D47">
+        <v>113512</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2956,11 +1828,11 @@
       <c r="B48" t="s">
         <v>49</v>
       </c>
-      <c r="C48" t="s">
-        <v>281</v>
-      </c>
-      <c r="D48" t="s">
-        <v>488</v>
+      <c r="C48">
+        <v>68602</v>
+      </c>
+      <c r="D48">
+        <v>38884</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2970,11 +1842,11 @@
       <c r="B49" t="s">
         <v>50</v>
       </c>
-      <c r="C49" t="s">
-        <v>282</v>
-      </c>
-      <c r="D49" t="s">
-        <v>489</v>
+      <c r="C49">
+        <v>64165</v>
+      </c>
+      <c r="D49">
+        <v>100444</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2984,11 +1856,11 @@
       <c r="B50" t="s">
         <v>50</v>
       </c>
-      <c r="C50" t="s">
-        <v>282</v>
-      </c>
-      <c r="D50" t="s">
-        <v>490</v>
+      <c r="C50">
+        <v>64165</v>
+      </c>
+      <c r="D50">
+        <v>65023</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2998,11 +1870,11 @@
       <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
-        <v>283</v>
-      </c>
-      <c r="D51" t="s">
-        <v>489</v>
+      <c r="C51">
+        <v>42151</v>
+      </c>
+      <c r="D51">
+        <v>100444</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3012,11 +1884,11 @@
       <c r="B52" t="s">
         <v>50</v>
       </c>
-      <c r="C52" t="s">
-        <v>283</v>
-      </c>
-      <c r="D52" t="s">
-        <v>490</v>
+      <c r="C52">
+        <v>42151</v>
+      </c>
+      <c r="D52">
+        <v>65023</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3026,11 +1898,11 @@
       <c r="B53" t="s">
         <v>51</v>
       </c>
-      <c r="C53" t="s">
-        <v>284</v>
-      </c>
-      <c r="D53" t="s">
-        <v>491</v>
+      <c r="C53">
+        <v>56901</v>
+      </c>
+      <c r="D53">
+        <v>71444</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3040,11 +1912,11 @@
       <c r="B54" t="s">
         <v>52</v>
       </c>
-      <c r="C54" t="s">
-        <v>285</v>
-      </c>
-      <c r="D54" t="s">
-        <v>492</v>
+      <c r="C54">
+        <v>50608</v>
+      </c>
+      <c r="D54">
+        <v>103978</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3054,11 +1926,11 @@
       <c r="B55" t="s">
         <v>53</v>
       </c>
-      <c r="C55" t="s">
-        <v>286</v>
-      </c>
-      <c r="D55" t="s">
-        <v>493</v>
+      <c r="C55">
+        <v>48618</v>
+      </c>
+      <c r="D55">
+        <v>126134</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3068,11 +1940,11 @@
       <c r="B56" t="s">
         <v>54</v>
       </c>
-      <c r="C56" t="s">
-        <v>287</v>
-      </c>
-      <c r="D56" t="s">
-        <v>494</v>
+      <c r="C56">
+        <v>47750.99</v>
+      </c>
+      <c r="D56">
+        <v>115670</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3082,11 +1954,11 @@
       <c r="B57" t="s">
         <v>55</v>
       </c>
-      <c r="C57" t="s">
-        <v>288</v>
-      </c>
-      <c r="D57" t="s">
-        <v>495</v>
+      <c r="C57">
+        <v>29677</v>
+      </c>
+      <c r="D57">
+        <v>25384</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3096,11 +1968,11 @@
       <c r="B58" t="s">
         <v>56</v>
       </c>
-      <c r="C58" t="s">
-        <v>289</v>
-      </c>
-      <c r="D58" t="s">
-        <v>496</v>
+      <c r="C58">
+        <v>26848</v>
+      </c>
+      <c r="D58">
+        <v>36878</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3110,11 +1982,11 @@
       <c r="B59" t="s">
         <v>57</v>
       </c>
-      <c r="C59" t="s">
-        <v>290</v>
-      </c>
-      <c r="D59" t="s">
-        <v>497</v>
+      <c r="C59">
+        <v>26316</v>
+      </c>
+      <c r="D59">
+        <v>4073</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3124,11 +1996,11 @@
       <c r="B60" t="s">
         <v>58</v>
       </c>
-      <c r="C60" t="s">
-        <v>291</v>
-      </c>
-      <c r="D60" t="s">
-        <v>498</v>
+      <c r="C60">
+        <v>18585</v>
+      </c>
+      <c r="D60">
+        <v>33681</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3138,8 +2010,11 @@
       <c r="B61" t="s">
         <v>59</v>
       </c>
-      <c r="C61" t="s">
-        <v>292</v>
+      <c r="C61">
+        <v>12586</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3149,8 +2024,11 @@
       <c r="B62" t="s">
         <v>60</v>
       </c>
-      <c r="C62" t="s">
-        <v>293</v>
+      <c r="C62">
+        <v>9028</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3160,11 +2038,11 @@
       <c r="B63" t="s">
         <v>61</v>
       </c>
-      <c r="C63" t="s">
-        <v>294</v>
-      </c>
-      <c r="D63" t="s">
-        <v>499</v>
+      <c r="C63">
+        <v>8563</v>
+      </c>
+      <c r="D63">
+        <v>47595</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3174,8 +2052,11 @@
       <c r="B64" t="s">
         <v>62</v>
       </c>
-      <c r="C64" t="s">
-        <v>295</v>
+      <c r="C64">
+        <v>7732</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3185,8 +2066,11 @@
       <c r="B65" t="s">
         <v>63</v>
       </c>
-      <c r="C65" t="s">
-        <v>296</v>
+      <c r="C65">
+        <v>5715</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3196,8 +2080,11 @@
       <c r="B66" t="s">
         <v>64</v>
       </c>
-      <c r="C66" t="s">
-        <v>297</v>
+      <c r="C66">
+        <v>4141</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3207,8 +2094,11 @@
       <c r="B67" t="s">
         <v>65</v>
       </c>
-      <c r="C67" t="s">
-        <v>298</v>
+      <c r="C67">
+        <v>4085</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3218,8 +2108,11 @@
       <c r="B68" t="s">
         <v>66</v>
       </c>
-      <c r="C68" t="s">
-        <v>299</v>
+      <c r="C68">
+        <v>3041</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3229,8 +2122,11 @@
       <c r="B69" t="s">
         <v>67</v>
       </c>
-      <c r="C69" t="s">
-        <v>300</v>
+      <c r="C69">
+        <v>2895</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3240,11 +2136,11 @@
       <c r="B70" t="s">
         <v>68</v>
       </c>
-      <c r="C70" t="s">
-        <v>301</v>
-      </c>
-      <c r="D70" t="s">
-        <v>500</v>
+      <c r="C70">
+        <v>2730</v>
+      </c>
+      <c r="D70">
+        <v>91552</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3254,11 +2150,11 @@
       <c r="B71" t="s">
         <v>69</v>
       </c>
-      <c r="C71" t="s">
-        <v>302</v>
-      </c>
-      <c r="D71" t="s">
-        <v>501</v>
+      <c r="C71">
+        <v>2283</v>
+      </c>
+      <c r="D71">
+        <v>98308</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3268,8 +2164,11 @@
       <c r="B72" t="s">
         <v>70</v>
       </c>
-      <c r="C72" t="s">
-        <v>303</v>
+      <c r="C72">
+        <v>2245.5</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3279,8 +2178,11 @@
       <c r="B73" t="s">
         <v>71</v>
       </c>
-      <c r="D73" t="s">
-        <v>502</v>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>228298</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3290,6 +2192,12 @@
       <c r="B74" t="s">
         <v>71</v>
       </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
@@ -3298,11 +2206,11 @@
       <c r="B75" t="s">
         <v>71</v>
       </c>
-      <c r="C75" t="s">
-        <v>304</v>
-      </c>
-      <c r="D75" t="s">
-        <v>502</v>
+      <c r="C75">
+        <v>219410</v>
+      </c>
+      <c r="D75">
+        <v>228298</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3312,8 +2220,11 @@
       <c r="B76" t="s">
         <v>71</v>
       </c>
-      <c r="C76" t="s">
-        <v>304</v>
+      <c r="C76">
+        <v>219410</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3323,6 +2234,12 @@
       <c r="B77" t="s">
         <v>72</v>
       </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
@@ -3331,6 +2248,12 @@
       <c r="B78" t="s">
         <v>73</v>
       </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
@@ -3339,6 +2262,12 @@
       <c r="B79" t="s">
         <v>74</v>
       </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
@@ -3347,6 +2276,12 @@
       <c r="B80" t="s">
         <v>75</v>
       </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1">
@@ -3355,6 +2290,12 @@
       <c r="B81" t="s">
         <v>76</v>
       </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1">
@@ -3363,8 +2304,11 @@
       <c r="B82" t="s">
         <v>76</v>
       </c>
-      <c r="D82" t="s">
-        <v>503</v>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>201135</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3374,8 +2318,11 @@
       <c r="B83" t="s">
         <v>76</v>
       </c>
-      <c r="C83" t="s">
-        <v>305</v>
+      <c r="C83">
+        <v>465280</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3385,11 +2332,11 @@
       <c r="B84" t="s">
         <v>76</v>
       </c>
-      <c r="C84" t="s">
-        <v>305</v>
-      </c>
-      <c r="D84" t="s">
-        <v>503</v>
+      <c r="C84">
+        <v>465280</v>
+      </c>
+      <c r="D84">
+        <v>201135</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3399,6 +2346,12 @@
       <c r="B85" t="s">
         <v>77</v>
       </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1">
@@ -3407,11 +2360,11 @@
       <c r="B86" t="s">
         <v>78</v>
       </c>
-      <c r="C86" t="s">
-        <v>306</v>
-      </c>
-      <c r="D86" t="s">
-        <v>504</v>
+      <c r="C86">
+        <v>912205</v>
+      </c>
+      <c r="D86">
+        <v>745644</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3421,11 +2374,11 @@
       <c r="B87" t="s">
         <v>79</v>
       </c>
-      <c r="C87" t="s">
-        <v>307</v>
-      </c>
-      <c r="D87" t="s">
-        <v>505</v>
+      <c r="C87">
+        <v>716736</v>
+      </c>
+      <c r="D87">
+        <v>645814</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3435,11 +2388,11 @@
       <c r="B88" t="s">
         <v>80</v>
       </c>
-      <c r="C88" t="s">
-        <v>308</v>
-      </c>
-      <c r="D88" t="s">
-        <v>506</v>
+      <c r="C88">
+        <v>546253.25</v>
+      </c>
+      <c r="D88">
+        <v>890624</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3449,11 +2402,11 @@
       <c r="B89" t="s">
         <v>81</v>
       </c>
-      <c r="C89" t="s">
-        <v>309</v>
-      </c>
-      <c r="D89" t="s">
-        <v>507</v>
+      <c r="C89">
+        <v>290297</v>
+      </c>
+      <c r="D89">
+        <v>58322</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3463,11 +2416,11 @@
       <c r="B90" t="s">
         <v>82</v>
       </c>
-      <c r="C90" t="s">
-        <v>310</v>
-      </c>
-      <c r="D90" t="s">
-        <v>508</v>
+      <c r="C90">
+        <v>244335</v>
+      </c>
+      <c r="D90">
+        <v>102213</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3477,11 +2430,11 @@
       <c r="B91" t="s">
         <v>83</v>
       </c>
-      <c r="C91" t="s">
-        <v>311</v>
-      </c>
-      <c r="D91" t="s">
-        <v>509</v>
+      <c r="C91">
+        <v>178786</v>
+      </c>
+      <c r="D91">
+        <v>227159</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3491,11 +2444,11 @@
       <c r="B92" t="s">
         <v>84</v>
       </c>
-      <c r="C92" t="s">
-        <v>312</v>
-      </c>
-      <c r="D92" t="s">
-        <v>510</v>
+      <c r="C92">
+        <v>161796.1</v>
+      </c>
+      <c r="D92">
+        <v>190147</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3505,11 +2458,11 @@
       <c r="B93" t="s">
         <v>85</v>
       </c>
-      <c r="C93" t="s">
-        <v>313</v>
-      </c>
-      <c r="D93" t="s">
-        <v>511</v>
+      <c r="C93">
+        <v>136579</v>
+      </c>
+      <c r="D93">
+        <v>19485</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3519,11 +2472,11 @@
       <c r="B94" t="s">
         <v>86</v>
       </c>
-      <c r="C94" t="s">
-        <v>314</v>
-      </c>
-      <c r="D94" t="s">
-        <v>512</v>
+      <c r="C94">
+        <v>59875</v>
+      </c>
+      <c r="D94">
+        <v>9944</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3533,11 +2486,11 @@
       <c r="B95" t="s">
         <v>87</v>
       </c>
-      <c r="C95" t="s">
-        <v>315</v>
-      </c>
-      <c r="D95" t="s">
-        <v>513</v>
+      <c r="C95">
+        <v>59323</v>
+      </c>
+      <c r="D95">
+        <v>73938</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3547,11 +2500,11 @@
       <c r="B96" t="s">
         <v>88</v>
       </c>
-      <c r="C96" t="s">
-        <v>316</v>
-      </c>
-      <c r="D96" t="s">
-        <v>514</v>
+      <c r="C96">
+        <v>53706</v>
+      </c>
+      <c r="D96">
+        <v>20704</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3561,11 +2514,11 @@
       <c r="B97" t="s">
         <v>89</v>
       </c>
-      <c r="C97" t="s">
-        <v>317</v>
-      </c>
-      <c r="D97" t="s">
-        <v>515</v>
+      <c r="C97">
+        <v>40893</v>
+      </c>
+      <c r="D97">
+        <v>151299</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3575,11 +2528,11 @@
       <c r="B98" t="s">
         <v>90</v>
       </c>
-      <c r="C98" t="s">
-        <v>318</v>
-      </c>
-      <c r="D98" t="s">
-        <v>516</v>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>18539</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3589,11 +2542,11 @@
       <c r="B99" t="s">
         <v>91</v>
       </c>
-      <c r="C99" t="s">
-        <v>319</v>
-      </c>
-      <c r="D99" t="s">
-        <v>517</v>
+      <c r="C99">
+        <v>2265063.01</v>
+      </c>
+      <c r="D99">
+        <v>1820026</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3603,11 +2556,11 @@
       <c r="B100" t="s">
         <v>92</v>
       </c>
-      <c r="C100" t="s">
-        <v>320</v>
-      </c>
-      <c r="D100" t="s">
-        <v>518</v>
+      <c r="C100">
+        <v>958162</v>
+      </c>
+      <c r="D100">
+        <v>606600</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3617,11 +2570,11 @@
       <c r="B101" t="s">
         <v>93</v>
       </c>
-      <c r="C101" t="s">
-        <v>321</v>
-      </c>
-      <c r="D101" t="s">
-        <v>519</v>
+      <c r="C101">
+        <v>850270</v>
+      </c>
+      <c r="D101">
+        <v>942612</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3631,11 +2584,11 @@
       <c r="B102" t="s">
         <v>94</v>
       </c>
-      <c r="C102" t="s">
-        <v>322</v>
-      </c>
-      <c r="D102" t="s">
-        <v>520</v>
+      <c r="C102">
+        <v>719310</v>
+      </c>
+      <c r="D102">
+        <v>889811</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3645,11 +2598,11 @@
       <c r="B103" t="s">
         <v>95</v>
       </c>
-      <c r="C103" t="s">
-        <v>323</v>
-      </c>
-      <c r="D103" t="s">
-        <v>521</v>
+      <c r="C103">
+        <v>630865</v>
+      </c>
+      <c r="D103">
+        <v>844662</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3659,11 +2612,11 @@
       <c r="B104" t="s">
         <v>96</v>
       </c>
-      <c r="C104" t="s">
-        <v>324</v>
-      </c>
-      <c r="D104" t="s">
-        <v>522</v>
+      <c r="C104">
+        <v>626105</v>
+      </c>
+      <c r="D104">
+        <v>342399</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3673,11 +2626,11 @@
       <c r="B105" t="s">
         <v>97</v>
       </c>
-      <c r="C105" t="s">
-        <v>325</v>
-      </c>
-      <c r="D105" t="s">
-        <v>523</v>
+      <c r="C105">
+        <v>586888.4</v>
+      </c>
+      <c r="D105">
+        <v>843383</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3687,11 +2640,11 @@
       <c r="B106" t="s">
         <v>98</v>
       </c>
-      <c r="C106" t="s">
-        <v>326</v>
-      </c>
-      <c r="D106" t="s">
-        <v>524</v>
+      <c r="C106">
+        <v>486162.5</v>
+      </c>
+      <c r="D106">
+        <v>596894</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3701,11 +2654,11 @@
       <c r="B107" t="s">
         <v>99</v>
       </c>
-      <c r="C107" t="s">
-        <v>327</v>
-      </c>
-      <c r="D107" t="s">
-        <v>525</v>
+      <c r="C107">
+        <v>434577</v>
+      </c>
+      <c r="D107">
+        <v>474537</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3715,11 +2668,11 @@
       <c r="B108" t="s">
         <v>100</v>
       </c>
-      <c r="C108" t="s">
-        <v>328</v>
-      </c>
-      <c r="D108" t="s">
-        <v>526</v>
+      <c r="C108">
+        <v>413627</v>
+      </c>
+      <c r="D108">
+        <v>454228</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3729,11 +2682,11 @@
       <c r="B109" t="s">
         <v>101</v>
       </c>
-      <c r="C109" t="s">
-        <v>329</v>
-      </c>
-      <c r="D109" t="s">
-        <v>527</v>
+      <c r="C109">
+        <v>403915</v>
+      </c>
+      <c r="D109">
+        <v>355152</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3743,11 +2696,11 @@
       <c r="B110" t="s">
         <v>102</v>
       </c>
-      <c r="C110" t="s">
-        <v>330</v>
-      </c>
-      <c r="D110" t="s">
-        <v>528</v>
+      <c r="C110">
+        <v>383730</v>
+      </c>
+      <c r="D110">
+        <v>416406</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3757,11 +2710,11 @@
       <c r="B111" t="s">
         <v>103</v>
       </c>
-      <c r="C111" t="s">
-        <v>331</v>
-      </c>
-      <c r="D111" t="s">
-        <v>529</v>
+      <c r="C111">
+        <v>383648</v>
+      </c>
+      <c r="D111">
+        <v>181146</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3771,11 +2724,11 @@
       <c r="B112" t="s">
         <v>104</v>
       </c>
-      <c r="C112" t="s">
-        <v>332</v>
-      </c>
-      <c r="D112" t="s">
-        <v>530</v>
+      <c r="C112">
+        <v>339329</v>
+      </c>
+      <c r="D112">
+        <v>869647.59</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3785,11 +2738,11 @@
       <c r="B113" t="s">
         <v>105</v>
       </c>
-      <c r="C113" t="s">
-        <v>333</v>
-      </c>
-      <c r="D113" t="s">
-        <v>531</v>
+      <c r="C113">
+        <v>334191</v>
+      </c>
+      <c r="D113">
+        <v>415762</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3799,11 +2752,11 @@
       <c r="B114" t="s">
         <v>106</v>
       </c>
-      <c r="C114" t="s">
-        <v>334</v>
-      </c>
-      <c r="D114" t="s">
-        <v>532</v>
+      <c r="C114">
+        <v>332874.02</v>
+      </c>
+      <c r="D114">
+        <v>274830</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3813,11 +2766,11 @@
       <c r="B115" t="s">
         <v>107</v>
       </c>
-      <c r="C115" t="s">
-        <v>335</v>
-      </c>
-      <c r="D115" t="s">
-        <v>533</v>
+      <c r="C115">
+        <v>326934</v>
+      </c>
+      <c r="D115">
+        <v>151504</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3827,11 +2780,11 @@
       <c r="B116" t="s">
         <v>108</v>
       </c>
-      <c r="C116" t="s">
-        <v>336</v>
-      </c>
-      <c r="D116" t="s">
-        <v>534</v>
+      <c r="C116">
+        <v>297583.5</v>
+      </c>
+      <c r="D116">
+        <v>440770</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3841,11 +2794,11 @@
       <c r="B117" t="s">
         <v>109</v>
       </c>
-      <c r="C117" t="s">
-        <v>337</v>
-      </c>
-      <c r="D117" t="s">
-        <v>535</v>
+      <c r="C117">
+        <v>272482.03</v>
+      </c>
+      <c r="D117">
+        <v>315213</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3855,11 +2808,11 @@
       <c r="B118" t="s">
         <v>110</v>
       </c>
-      <c r="C118" t="s">
-        <v>338</v>
-      </c>
-      <c r="D118" t="s">
-        <v>536</v>
+      <c r="C118">
+        <v>270139</v>
+      </c>
+      <c r="D118">
+        <v>140494</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3869,11 +2822,11 @@
       <c r="B119" t="s">
         <v>111</v>
       </c>
-      <c r="C119" t="s">
-        <v>339</v>
-      </c>
-      <c r="D119" t="s">
-        <v>537</v>
+      <c r="C119">
+        <v>259662</v>
+      </c>
+      <c r="D119">
+        <v>188105</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3881,13 +2834,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>111</v>
-      </c>
-      <c r="C120" t="s">
-        <v>339</v>
-      </c>
-      <c r="D120" t="s">
-        <v>538</v>
+        <v>112</v>
+      </c>
+      <c r="C120">
+        <v>250651</v>
+      </c>
+      <c r="D120">
+        <v>65915</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3895,10 +2848,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>111</v>
-      </c>
-      <c r="D121" t="s">
-        <v>537</v>
+        <v>113</v>
+      </c>
+      <c r="C121">
+        <v>234529</v>
+      </c>
+      <c r="D121">
+        <v>144877</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3906,10 +2862,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>111</v>
-      </c>
-      <c r="D122" t="s">
-        <v>538</v>
+        <v>114</v>
+      </c>
+      <c r="C122">
+        <v>227090</v>
+      </c>
+      <c r="D122">
+        <v>329626</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3917,13 +2876,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>112</v>
-      </c>
-      <c r="C123" t="s">
-        <v>340</v>
-      </c>
-      <c r="D123" t="s">
-        <v>539</v>
+        <v>115</v>
+      </c>
+      <c r="C123">
+        <v>219214</v>
+      </c>
+      <c r="D123">
+        <v>149383.36</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3931,13 +2890,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>113</v>
-      </c>
-      <c r="C124" t="s">
-        <v>341</v>
-      </c>
-      <c r="D124" t="s">
-        <v>540</v>
+        <v>116</v>
+      </c>
+      <c r="C124">
+        <v>218793</v>
+      </c>
+      <c r="D124">
+        <v>187161</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3945,13 +2904,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>113</v>
-      </c>
-      <c r="C125" t="s">
-        <v>341</v>
-      </c>
-      <c r="D125" t="s">
-        <v>541</v>
+        <v>117</v>
+      </c>
+      <c r="C125">
+        <v>216231</v>
+      </c>
+      <c r="D125">
+        <v>240674</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3959,13 +2918,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>113</v>
-      </c>
-      <c r="C126" t="s">
-        <v>342</v>
-      </c>
-      <c r="D126" t="s">
-        <v>540</v>
+        <v>118</v>
+      </c>
+      <c r="C126">
+        <v>197241</v>
+      </c>
+      <c r="D126">
+        <v>139695</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3973,13 +2932,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>113</v>
-      </c>
-      <c r="C127" t="s">
-        <v>342</v>
-      </c>
-      <c r="D127" t="s">
-        <v>541</v>
+        <v>119</v>
+      </c>
+      <c r="C127">
+        <v>173707</v>
+      </c>
+      <c r="D127">
+        <v>196719</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3987,13 +2946,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>114</v>
-      </c>
-      <c r="C128" t="s">
-        <v>343</v>
-      </c>
-      <c r="D128" t="s">
-        <v>542</v>
+        <v>120</v>
+      </c>
+      <c r="C128">
+        <v>164289</v>
+      </c>
+      <c r="D128">
+        <v>57852</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4001,13 +2960,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>115</v>
-      </c>
-      <c r="C129" t="s">
-        <v>344</v>
-      </c>
-      <c r="D129" t="s">
-        <v>543</v>
+        <v>121</v>
+      </c>
+      <c r="C129">
+        <v>133831</v>
+      </c>
+      <c r="D129">
+        <v>64596</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4015,13 +2974,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>115</v>
-      </c>
-      <c r="C130" t="s">
-        <v>344</v>
-      </c>
-      <c r="D130" t="s">
-        <v>544</v>
+        <v>122</v>
+      </c>
+      <c r="C130">
+        <v>127313</v>
+      </c>
+      <c r="D130">
+        <v>118634</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4029,13 +2988,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>115</v>
-      </c>
-      <c r="C131" t="s">
-        <v>345</v>
-      </c>
-      <c r="D131" t="s">
-        <v>543</v>
+        <v>123</v>
+      </c>
+      <c r="C131">
+        <v>101515</v>
+      </c>
+      <c r="D131">
+        <v>258653</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4043,13 +3002,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>115</v>
-      </c>
-      <c r="C132" t="s">
-        <v>345</v>
-      </c>
-      <c r="D132" t="s">
-        <v>544</v>
+        <v>124</v>
+      </c>
+      <c r="C132">
+        <v>93515</v>
+      </c>
+      <c r="D132">
+        <v>27900</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4057,13 +3016,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>116</v>
-      </c>
-      <c r="C133" t="s">
-        <v>346</v>
-      </c>
-      <c r="D133" t="s">
-        <v>545</v>
+        <v>124</v>
+      </c>
+      <c r="C133">
+        <v>93515</v>
+      </c>
+      <c r="D133">
+        <v>65465</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4071,13 +3030,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>117</v>
-      </c>
-      <c r="C134" t="s">
-        <v>347</v>
-      </c>
-      <c r="D134" t="s">
-        <v>546</v>
+        <v>124</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>27900</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4085,10 +3044,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>118</v>
-      </c>
-      <c r="C135" t="s">
-        <v>348</v>
+        <v>124</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>65465</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4096,13 +3058,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>119</v>
-      </c>
-      <c r="C136" t="s">
-        <v>349</v>
-      </c>
-      <c r="D136" t="s">
-        <v>547</v>
+        <v>125</v>
+      </c>
+      <c r="C136">
+        <v>91298</v>
+      </c>
+      <c r="D136">
+        <v>57277</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4110,13 +3072,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>120</v>
-      </c>
-      <c r="C137" t="s">
-        <v>350</v>
-      </c>
-      <c r="D137" t="s">
-        <v>548</v>
+        <v>126</v>
+      </c>
+      <c r="C137">
+        <v>90000</v>
+      </c>
+      <c r="D137">
+        <v>1035386</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4124,13 +3086,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>121</v>
-      </c>
-      <c r="C138" t="s">
-        <v>351</v>
-      </c>
-      <c r="D138" t="s">
-        <v>549</v>
+        <v>126</v>
+      </c>
+      <c r="C138">
+        <v>90000</v>
+      </c>
+      <c r="D138">
+        <v>219540</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4138,13 +3100,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>122</v>
-      </c>
-      <c r="C139" t="s">
-        <v>352</v>
-      </c>
-      <c r="D139" t="s">
-        <v>550</v>
+        <v>126</v>
+      </c>
+      <c r="C139">
+        <v>509441</v>
+      </c>
+      <c r="D139">
+        <v>1035386</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4152,13 +3114,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>123</v>
-      </c>
-      <c r="C140" t="s">
-        <v>353</v>
-      </c>
-      <c r="D140" t="s">
-        <v>551</v>
+        <v>126</v>
+      </c>
+      <c r="C140">
+        <v>509441</v>
+      </c>
+      <c r="D140">
+        <v>219540</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4166,13 +3128,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>124</v>
-      </c>
-      <c r="C141" t="s">
-        <v>354</v>
-      </c>
-      <c r="D141" t="s">
-        <v>552</v>
+        <v>127</v>
+      </c>
+      <c r="C141">
+        <v>78830</v>
+      </c>
+      <c r="D141">
+        <v>91246</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4180,13 +3142,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>125</v>
-      </c>
-      <c r="C142" t="s">
-        <v>355</v>
-      </c>
-      <c r="D142" t="s">
-        <v>553</v>
+        <v>128</v>
+      </c>
+      <c r="C142">
+        <v>75162</v>
+      </c>
+      <c r="D142">
+        <v>641394</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4194,13 +3156,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>125</v>
-      </c>
-      <c r="C143" t="s">
-        <v>355</v>
-      </c>
-      <c r="D143" t="s">
-        <v>554</v>
+        <v>128</v>
+      </c>
+      <c r="C143">
+        <v>75162</v>
+      </c>
+      <c r="D143">
+        <v>186112</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4208,10 +3170,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>125</v>
-      </c>
-      <c r="D144" t="s">
-        <v>553</v>
+        <v>128</v>
+      </c>
+      <c r="C144">
+        <v>248551</v>
+      </c>
+      <c r="D144">
+        <v>641394</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4219,10 +3184,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>125</v>
-      </c>
-      <c r="D145" t="s">
-        <v>554</v>
+        <v>128</v>
+      </c>
+      <c r="C145">
+        <v>248551</v>
+      </c>
+      <c r="D145">
+        <v>186112</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4230,13 +3198,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>126</v>
-      </c>
-      <c r="C146" t="s">
-        <v>356</v>
-      </c>
-      <c r="D146" t="s">
-        <v>555</v>
+        <v>129</v>
+      </c>
+      <c r="C146">
+        <v>74222</v>
+      </c>
+      <c r="D146">
+        <v>283565</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4244,13 +3212,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>127</v>
-      </c>
-      <c r="C147" t="s">
-        <v>357</v>
-      </c>
-      <c r="D147" t="s">
-        <v>556</v>
+        <v>130</v>
+      </c>
+      <c r="C147">
+        <v>71223</v>
+      </c>
+      <c r="D147">
+        <v>86503</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4258,10 +3226,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>127</v>
-      </c>
-      <c r="C148" t="s">
-        <v>357</v>
+        <v>131</v>
+      </c>
+      <c r="C148">
+        <v>57546</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4269,13 +3240,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>127</v>
-      </c>
-      <c r="C149" t="s">
-        <v>358</v>
-      </c>
-      <c r="D149" t="s">
-        <v>556</v>
+        <v>132</v>
+      </c>
+      <c r="C149">
+        <v>53708</v>
+      </c>
+      <c r="D149">
+        <v>62584</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4283,10 +3254,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>127</v>
-      </c>
-      <c r="C150" t="s">
-        <v>358</v>
+        <v>133</v>
+      </c>
+      <c r="C150">
+        <v>53664</v>
+      </c>
+      <c r="D150">
+        <v>248573</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4294,13 +3268,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>128</v>
-      </c>
-      <c r="C151" t="s">
-        <v>359</v>
-      </c>
-      <c r="D151" t="s">
-        <v>557</v>
+        <v>134</v>
+      </c>
+      <c r="C151">
+        <v>43719</v>
+      </c>
+      <c r="D151">
+        <v>8786</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4308,10 +3282,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>129</v>
-      </c>
-      <c r="C152" t="s">
-        <v>360</v>
+        <v>135</v>
+      </c>
+      <c r="C152">
+        <v>42767</v>
+      </c>
+      <c r="D152">
+        <v>133262</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4319,13 +3296,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>130</v>
-      </c>
-      <c r="C153" t="s">
-        <v>361</v>
-      </c>
-      <c r="D153" t="s">
-        <v>558</v>
+        <v>136</v>
+      </c>
+      <c r="C153">
+        <v>35793</v>
+      </c>
+      <c r="D153">
+        <v>32887</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4333,13 +3310,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>131</v>
-      </c>
-      <c r="C154" t="s">
-        <v>362</v>
-      </c>
-      <c r="D154" t="s">
-        <v>559</v>
+        <v>137</v>
+      </c>
+      <c r="C154">
+        <v>34001</v>
+      </c>
+      <c r="D154">
+        <v>122110</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4347,13 +3324,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>132</v>
-      </c>
-      <c r="C155" t="s">
-        <v>363</v>
-      </c>
-      <c r="D155" t="s">
-        <v>560</v>
+        <v>138</v>
+      </c>
+      <c r="C155">
+        <v>31118</v>
+      </c>
+      <c r="D155">
+        <v>13800</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4361,10 +3338,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>133</v>
-      </c>
-      <c r="C156" t="s">
-        <v>364</v>
+        <v>138</v>
+      </c>
+      <c r="C156">
+        <v>31118</v>
+      </c>
+      <c r="D156">
+        <v>57514</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4372,13 +3352,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>134</v>
-      </c>
-      <c r="C157" t="s">
-        <v>365</v>
-      </c>
-      <c r="D157" t="s">
-        <v>561</v>
+        <v>138</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>13800</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4386,10 +3366,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>135</v>
-      </c>
-      <c r="C158" t="s">
-        <v>366</v>
+        <v>138</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>57514</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4397,13 +3380,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>136</v>
-      </c>
-      <c r="C159" t="s">
-        <v>367</v>
-      </c>
-      <c r="D159" t="s">
-        <v>562</v>
+        <v>139</v>
+      </c>
+      <c r="C159">
+        <v>27645</v>
+      </c>
+      <c r="D159">
+        <v>36691</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4411,10 +3394,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>136</v>
-      </c>
-      <c r="C160" t="s">
-        <v>367</v>
+        <v>140</v>
+      </c>
+      <c r="C160">
+        <v>26500</v>
+      </c>
+      <c r="D160">
+        <v>251469</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4422,13 +3408,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>136</v>
-      </c>
-      <c r="C161" t="s">
-        <v>368</v>
-      </c>
-      <c r="D161" t="s">
-        <v>562</v>
+        <v>140</v>
+      </c>
+      <c r="C161">
+        <v>26500</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4436,10 +3422,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>136</v>
-      </c>
-      <c r="C162" t="s">
-        <v>368</v>
+        <v>140</v>
+      </c>
+      <c r="C162">
+        <v>365162</v>
+      </c>
+      <c r="D162">
+        <v>251469</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4447,13 +3436,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>137</v>
-      </c>
-      <c r="C163" t="s">
-        <v>369</v>
-      </c>
-      <c r="D163" t="s">
-        <v>563</v>
+        <v>140</v>
+      </c>
+      <c r="C163">
+        <v>365162</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4461,10 +3450,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>138</v>
-      </c>
-      <c r="C164" t="s">
-        <v>370</v>
+        <v>141</v>
+      </c>
+      <c r="C164">
+        <v>24548</v>
+      </c>
+      <c r="D164">
+        <v>53930</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4472,13 +3464,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>139</v>
-      </c>
-      <c r="C165" t="s">
-        <v>371</v>
-      </c>
-      <c r="D165" t="s">
-        <v>564</v>
+        <v>142</v>
+      </c>
+      <c r="C165">
+        <v>24533</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4486,10 +3478,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>140</v>
-      </c>
-      <c r="C166" t="s">
-        <v>372</v>
+        <v>143</v>
+      </c>
+      <c r="C166">
+        <v>16888</v>
+      </c>
+      <c r="D166">
+        <v>45660</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4497,10 +3492,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>141</v>
-      </c>
-      <c r="C167" t="s">
-        <v>373</v>
+        <v>144</v>
+      </c>
+      <c r="C167">
+        <v>9519</v>
+      </c>
+      <c r="D167">
+        <v>356532</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4508,10 +3506,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>142</v>
-      </c>
-      <c r="C168" t="s">
-        <v>374</v>
+        <v>145</v>
+      </c>
+      <c r="C168">
+        <v>8818</v>
+      </c>
+      <c r="D168">
+        <v>13086</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4519,13 +3520,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>143</v>
-      </c>
-      <c r="C169" t="s">
-        <v>375</v>
-      </c>
-      <c r="D169" t="s">
-        <v>565</v>
+        <v>146</v>
+      </c>
+      <c r="C169">
+        <v>8815</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4533,13 +3534,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>144</v>
-      </c>
-      <c r="C170" t="s">
-        <v>376</v>
-      </c>
-      <c r="D170" t="s">
-        <v>376</v>
+        <v>147</v>
+      </c>
+      <c r="C170">
+        <v>7881</v>
+      </c>
+      <c r="D170">
+        <v>108317</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4547,10 +3548,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>145</v>
-      </c>
-      <c r="C171" t="s">
-        <v>377</v>
+        <v>148</v>
+      </c>
+      <c r="C171">
+        <v>7122</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4558,10 +3562,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>146</v>
-      </c>
-      <c r="C172" t="s">
-        <v>378</v>
+        <v>149</v>
+      </c>
+      <c r="C172">
+        <v>6900</v>
+      </c>
+      <c r="D172">
+        <v>183582</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4569,10 +3576,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>147</v>
-      </c>
-      <c r="C173" t="s">
-        <v>379</v>
+        <v>149</v>
+      </c>
+      <c r="C173">
+        <v>6900</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4580,10 +3590,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C174">
-        <v>100</v>
+        <v>325886</v>
+      </c>
+      <c r="D174">
+        <v>183582</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4593,6 +3606,12 @@
       <c r="B175" t="s">
         <v>149</v>
       </c>
+      <c r="C175">
+        <v>325886</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1">
@@ -4601,13 +3620,25 @@
       <c r="B176" t="s">
         <v>150</v>
       </c>
+      <c r="C176">
+        <v>6531</v>
+      </c>
+      <c r="D176">
+        <v>4200</v>
+      </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="C177">
+        <v>6027</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4615,7 +3646,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="C178">
+        <v>5921</v>
+      </c>
+      <c r="D178">
+        <v>25145</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4623,7 +3660,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>150</v>
+        <v>153</v>
+      </c>
+      <c r="C179">
+        <v>5100</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4631,7 +3674,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="C180">
+        <v>4993</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4639,10 +3688,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>152</v>
-      </c>
-      <c r="D181" t="s">
-        <v>566</v>
+        <v>155</v>
+      </c>
+      <c r="C181">
+        <v>4980</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4650,7 +3702,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>153</v>
+        <v>156</v>
+      </c>
+      <c r="C182">
+        <v>4261</v>
+      </c>
+      <c r="D182">
+        <v>1400</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4658,10 +3716,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>154</v>
-      </c>
-      <c r="D183" t="s">
-        <v>567</v>
+        <v>157</v>
+      </c>
+      <c r="C183">
+        <v>3900</v>
+      </c>
+      <c r="D183">
+        <v>3900</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4669,7 +3730,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>154</v>
+        <v>158</v>
+      </c>
+      <c r="C184">
+        <v>3200.7</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4677,13 +3744,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>154</v>
-      </c>
-      <c r="C185" t="s">
-        <v>380</v>
-      </c>
-      <c r="D185" t="s">
-        <v>567</v>
+        <v>159</v>
+      </c>
+      <c r="C185">
+        <v>2750</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4691,10 +3758,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>154</v>
-      </c>
-      <c r="C186" t="s">
-        <v>380</v>
+        <v>160</v>
+      </c>
+      <c r="C186">
+        <v>1929</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4702,10 +3772,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>155</v>
-      </c>
-      <c r="D187" t="s">
-        <v>568</v>
+        <v>161</v>
+      </c>
+      <c r="C187">
+        <v>100</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4713,7 +3786,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>155</v>
+        <v>162</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4721,13 +3800,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>155</v>
-      </c>
-      <c r="C189" t="s">
-        <v>381</v>
-      </c>
-      <c r="D189" t="s">
-        <v>568</v>
+        <v>163</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4735,10 +3814,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>155</v>
-      </c>
-      <c r="C190" t="s">
-        <v>381</v>
+        <v>163</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4746,7 +3828,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>156</v>
+        <v>163</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4754,10 +3842,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>157</v>
-      </c>
-      <c r="D192" t="s">
-        <v>569</v>
+        <v>163</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4765,10 +3856,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>158</v>
-      </c>
-      <c r="D193" t="s">
-        <v>570</v>
+        <v>164</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4776,13 +3870,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>159</v>
-      </c>
-      <c r="C194" t="s">
-        <v>382</v>
-      </c>
-      <c r="D194" t="s">
-        <v>571</v>
+        <v>165</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>72377</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4790,13 +3884,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>160</v>
-      </c>
-      <c r="C195" t="s">
-        <v>383</v>
-      </c>
-      <c r="D195" t="s">
-        <v>572</v>
+        <v>166</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4804,13 +3898,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>161</v>
-      </c>
-      <c r="C196" t="s">
-        <v>384</v>
-      </c>
-      <c r="D196" t="s">
-        <v>573</v>
+        <v>167</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>1054131</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4818,13 +3912,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>162</v>
-      </c>
-      <c r="C197" t="s">
-        <v>385</v>
-      </c>
-      <c r="D197" t="s">
-        <v>574</v>
+        <v>167</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4832,13 +3926,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>163</v>
-      </c>
-      <c r="C198" t="s">
-        <v>386</v>
-      </c>
-      <c r="D198" t="s">
-        <v>575</v>
+        <v>167</v>
+      </c>
+      <c r="C198">
+        <v>275219</v>
+      </c>
+      <c r="D198">
+        <v>1054131</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4846,13 +3940,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>164</v>
-      </c>
-      <c r="C199" t="s">
-        <v>387</v>
-      </c>
-      <c r="D199" t="s">
-        <v>576</v>
+        <v>167</v>
+      </c>
+      <c r="C199">
+        <v>275219</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4860,13 +3954,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>165</v>
-      </c>
-      <c r="C200" t="s">
-        <v>388</v>
-      </c>
-      <c r="D200" t="s">
-        <v>577</v>
+        <v>168</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>355101</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4874,13 +3968,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>166</v>
-      </c>
-      <c r="C201" t="s">
-        <v>389</v>
-      </c>
-      <c r="D201" t="s">
-        <v>578</v>
+        <v>168</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4888,13 +3982,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>167</v>
-      </c>
-      <c r="C202" t="s">
-        <v>390</v>
-      </c>
-      <c r="D202" t="s">
-        <v>579</v>
+        <v>168</v>
+      </c>
+      <c r="C202">
+        <v>503277</v>
+      </c>
+      <c r="D202">
+        <v>355101</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4904,11 +3998,11 @@
       <c r="B203" t="s">
         <v>168</v>
       </c>
-      <c r="C203" t="s">
-        <v>391</v>
-      </c>
-      <c r="D203" t="s">
-        <v>580</v>
+      <c r="C203">
+        <v>503277</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4918,11 +4012,11 @@
       <c r="B204" t="s">
         <v>169</v>
       </c>
-      <c r="C204" t="s">
-        <v>392</v>
-      </c>
-      <c r="D204" t="s">
-        <v>581</v>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4932,11 +4026,11 @@
       <c r="B205" t="s">
         <v>170</v>
       </c>
-      <c r="C205" t="s">
-        <v>393</v>
-      </c>
-      <c r="D205" t="s">
-        <v>582</v>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>150303</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4946,11 +4040,11 @@
       <c r="B206" t="s">
         <v>171</v>
       </c>
-      <c r="C206" t="s">
-        <v>394</v>
-      </c>
-      <c r="D206" t="s">
-        <v>583</v>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>5250</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4960,11 +4054,11 @@
       <c r="B207" t="s">
         <v>172</v>
       </c>
-      <c r="C207" t="s">
-        <v>395</v>
-      </c>
-      <c r="D207" t="s">
-        <v>584</v>
+      <c r="C207">
+        <v>607075</v>
+      </c>
+      <c r="D207">
+        <v>807630</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4974,11 +4068,11 @@
       <c r="B208" t="s">
         <v>173</v>
       </c>
-      <c r="C208" t="s">
-        <v>396</v>
-      </c>
-      <c r="D208" t="s">
-        <v>585</v>
+      <c r="C208">
+        <v>590577</v>
+      </c>
+      <c r="D208">
+        <v>152370</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4988,11 +4082,11 @@
       <c r="B209" t="s">
         <v>174</v>
       </c>
-      <c r="C209" t="s">
-        <v>397</v>
-      </c>
-      <c r="D209" t="s">
-        <v>586</v>
+      <c r="C209">
+        <v>322864</v>
+      </c>
+      <c r="D209">
+        <v>317759</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5002,11 +4096,11 @@
       <c r="B210" t="s">
         <v>175</v>
       </c>
-      <c r="C210" t="s">
-        <v>398</v>
-      </c>
-      <c r="D210" t="s">
-        <v>587</v>
+      <c r="C210">
+        <v>201131</v>
+      </c>
+      <c r="D210">
+        <v>130778</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5016,11 +4110,11 @@
       <c r="B211" t="s">
         <v>176</v>
       </c>
-      <c r="C211" t="s">
-        <v>399</v>
-      </c>
-      <c r="D211" t="s">
-        <v>588</v>
+      <c r="C211">
+        <v>51062</v>
+      </c>
+      <c r="D211">
+        <v>153903</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5030,11 +4124,11 @@
       <c r="B212" t="s">
         <v>177</v>
       </c>
-      <c r="C212" t="s">
-        <v>400</v>
-      </c>
-      <c r="D212" t="s">
-        <v>589</v>
+      <c r="C212">
+        <v>47991</v>
+      </c>
+      <c r="D212">
+        <v>48304</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5044,11 +4138,11 @@
       <c r="B213" t="s">
         <v>178</v>
       </c>
-      <c r="C213" t="s">
-        <v>401</v>
-      </c>
-      <c r="D213" t="s">
-        <v>590</v>
+      <c r="C213">
+        <v>44817</v>
+      </c>
+      <c r="D213">
+        <v>91176</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5058,11 +4152,11 @@
       <c r="B214" t="s">
         <v>179</v>
       </c>
-      <c r="C214" t="s">
-        <v>402</v>
-      </c>
-      <c r="D214" t="s">
-        <v>591</v>
+      <c r="C214">
+        <v>34547.9</v>
+      </c>
+      <c r="D214">
+        <v>96863</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5072,11 +4166,11 @@
       <c r="B215" t="s">
         <v>180</v>
       </c>
-      <c r="C215" t="s">
-        <v>403</v>
-      </c>
-      <c r="D215" t="s">
-        <v>592</v>
+      <c r="C215">
+        <v>1339899</v>
+      </c>
+      <c r="D215">
+        <v>609773</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5086,11 +4180,11 @@
       <c r="B216" t="s">
         <v>181</v>
       </c>
-      <c r="C216" t="s">
-        <v>332</v>
-      </c>
-      <c r="D216" t="s">
-        <v>593</v>
+      <c r="C216">
+        <v>744420</v>
+      </c>
+      <c r="D216">
+        <v>434156</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5100,11 +4194,11 @@
       <c r="B217" t="s">
         <v>182</v>
       </c>
-      <c r="C217" t="s">
-        <v>404</v>
-      </c>
-      <c r="D217" t="s">
-        <v>594</v>
+      <c r="C217">
+        <v>599558</v>
+      </c>
+      <c r="D217">
+        <v>392415</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5114,11 +4208,11 @@
       <c r="B218" t="s">
         <v>183</v>
       </c>
-      <c r="C218" t="s">
-        <v>405</v>
-      </c>
-      <c r="D218" t="s">
-        <v>595</v>
+      <c r="C218">
+        <v>576505</v>
+      </c>
+      <c r="D218">
+        <v>1285915</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5128,11 +4222,11 @@
       <c r="B219" t="s">
         <v>184</v>
       </c>
-      <c r="C219" t="s">
-        <v>406</v>
-      </c>
-      <c r="D219" t="s">
-        <v>596</v>
+      <c r="C219">
+        <v>573500</v>
+      </c>
+      <c r="D219">
+        <v>480245</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5142,11 +4236,11 @@
       <c r="B220" t="s">
         <v>185</v>
       </c>
-      <c r="C220" t="s">
-        <v>407</v>
-      </c>
-      <c r="D220" t="s">
-        <v>597</v>
+      <c r="C220">
+        <v>485955.38</v>
+      </c>
+      <c r="D220">
+        <v>226682</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5156,11 +4250,11 @@
       <c r="B221" t="s">
         <v>186</v>
       </c>
-      <c r="C221" t="s">
-        <v>408</v>
-      </c>
-      <c r="D221" t="s">
-        <v>598</v>
+      <c r="C221">
+        <v>450668</v>
+      </c>
+      <c r="D221">
+        <v>530854</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5170,11 +4264,11 @@
       <c r="B222" t="s">
         <v>187</v>
       </c>
-      <c r="C222" t="s">
-        <v>409</v>
-      </c>
-      <c r="D222" t="s">
-        <v>599</v>
+      <c r="C222">
+        <v>450101</v>
+      </c>
+      <c r="D222">
+        <v>319588</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5184,11 +4278,11 @@
       <c r="B223" t="s">
         <v>188</v>
       </c>
-      <c r="C223" t="s">
-        <v>410</v>
-      </c>
-      <c r="D223" t="s">
-        <v>600</v>
+      <c r="C223">
+        <v>415179</v>
+      </c>
+      <c r="D223">
+        <v>308365</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5198,11 +4292,11 @@
       <c r="B224" t="s">
         <v>189</v>
       </c>
-      <c r="C224" t="s">
-        <v>411</v>
-      </c>
-      <c r="D224" t="s">
-        <v>601</v>
+      <c r="C224">
+        <v>402081</v>
+      </c>
+      <c r="D224">
+        <v>195142</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5212,11 +4306,11 @@
       <c r="B225" t="s">
         <v>190</v>
       </c>
-      <c r="C225" t="s">
-        <v>412</v>
-      </c>
-      <c r="D225" t="s">
-        <v>602</v>
+      <c r="C225">
+        <v>363034</v>
+      </c>
+      <c r="D225">
+        <v>107648</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5226,11 +4320,11 @@
       <c r="B226" t="s">
         <v>191</v>
       </c>
-      <c r="C226" t="s">
-        <v>413</v>
-      </c>
-      <c r="D226" t="s">
-        <v>603</v>
+      <c r="C226">
+        <v>354418.31</v>
+      </c>
+      <c r="D226">
+        <v>175367</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5240,11 +4334,11 @@
       <c r="B227" t="s">
         <v>192</v>
       </c>
-      <c r="C227" t="s">
-        <v>414</v>
-      </c>
-      <c r="D227" t="s">
-        <v>604</v>
+      <c r="C227">
+        <v>338770.02</v>
+      </c>
+      <c r="D227">
+        <v>319767</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5254,11 +4348,11 @@
       <c r="B228" t="s">
         <v>193</v>
       </c>
-      <c r="C228" t="s">
-        <v>415</v>
-      </c>
-      <c r="D228" t="s">
-        <v>605</v>
+      <c r="C228">
+        <v>337533</v>
+      </c>
+      <c r="D228">
+        <v>576026</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5268,11 +4362,11 @@
       <c r="B229" t="s">
         <v>194</v>
       </c>
-      <c r="C229" t="s">
-        <v>416</v>
-      </c>
-      <c r="D229" t="s">
-        <v>606</v>
+      <c r="C229">
+        <v>317816</v>
+      </c>
+      <c r="D229">
+        <v>300244</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5282,11 +4376,11 @@
       <c r="B230" t="s">
         <v>195</v>
       </c>
-      <c r="C230" t="s">
-        <v>417</v>
-      </c>
-      <c r="D230" t="s">
-        <v>607</v>
+      <c r="C230">
+        <v>307419</v>
+      </c>
+      <c r="D230">
+        <v>163131</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5296,11 +4390,11 @@
       <c r="B231" t="s">
         <v>196</v>
       </c>
-      <c r="C231" t="s">
-        <v>418</v>
-      </c>
-      <c r="D231" t="s">
-        <v>608</v>
+      <c r="C231">
+        <v>301891</v>
+      </c>
+      <c r="D231">
+        <v>64186</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5310,11 +4404,11 @@
       <c r="B232" t="s">
         <v>197</v>
       </c>
-      <c r="C232" t="s">
-        <v>419</v>
-      </c>
-      <c r="D232" t="s">
-        <v>609</v>
+      <c r="C232">
+        <v>298342</v>
+      </c>
+      <c r="D232">
+        <v>182979</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5324,11 +4418,11 @@
       <c r="B233" t="s">
         <v>198</v>
       </c>
-      <c r="C233" t="s">
-        <v>420</v>
-      </c>
-      <c r="D233" t="s">
-        <v>610</v>
+      <c r="C233">
+        <v>287212</v>
+      </c>
+      <c r="D233">
+        <v>306935</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5338,11 +4432,11 @@
       <c r="B234" t="s">
         <v>199</v>
       </c>
-      <c r="C234" t="s">
-        <v>421</v>
-      </c>
-      <c r="D234" t="s">
-        <v>611</v>
+      <c r="C234">
+        <v>279386.91</v>
+      </c>
+      <c r="D234">
+        <v>211906</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5352,11 +4446,11 @@
       <c r="B235" t="s">
         <v>200</v>
       </c>
-      <c r="C235" t="s">
-        <v>422</v>
-      </c>
-      <c r="D235" t="s">
-        <v>612</v>
+      <c r="C235">
+        <v>241138.38</v>
+      </c>
+      <c r="D235">
+        <v>179428</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5366,11 +4460,11 @@
       <c r="B236" t="s">
         <v>201</v>
       </c>
-      <c r="C236" t="s">
-        <v>423</v>
-      </c>
-      <c r="D236" t="s">
-        <v>613</v>
+      <c r="C236">
+        <v>224526.7</v>
+      </c>
+      <c r="D236">
+        <v>45921</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5380,11 +4474,11 @@
       <c r="B237" t="s">
         <v>202</v>
       </c>
-      <c r="C237" t="s">
-        <v>424</v>
-      </c>
-      <c r="D237" t="s">
-        <v>614</v>
+      <c r="C237">
+        <v>216231</v>
+      </c>
+      <c r="D237">
+        <v>295707</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5394,8 +4488,11 @@
       <c r="B238" t="s">
         <v>203</v>
       </c>
-      <c r="C238" t="s">
-        <v>425</v>
+      <c r="C238">
+        <v>191431</v>
+      </c>
+      <c r="D238">
+        <v>171046</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5405,11 +4502,11 @@
       <c r="B239" t="s">
         <v>204</v>
       </c>
-      <c r="C239" t="s">
-        <v>426</v>
-      </c>
-      <c r="D239" t="s">
-        <v>615</v>
+      <c r="C239">
+        <v>180697</v>
+      </c>
+      <c r="D239">
+        <v>112402</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5419,11 +4516,11 @@
       <c r="B240" t="s">
         <v>205</v>
       </c>
-      <c r="C240" t="s">
-        <v>427</v>
-      </c>
-      <c r="D240" t="s">
-        <v>616</v>
+      <c r="C240">
+        <v>176670</v>
+      </c>
+      <c r="D240">
+        <v>535404</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5433,11 +4530,11 @@
       <c r="B241" t="s">
         <v>206</v>
       </c>
-      <c r="C241" t="s">
-        <v>428</v>
-      </c>
-      <c r="D241" t="s">
-        <v>617</v>
+      <c r="C241">
+        <v>160176</v>
+      </c>
+      <c r="D241">
+        <v>352155.08</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5447,11 +4544,11 @@
       <c r="B242" t="s">
         <v>207</v>
       </c>
-      <c r="C242" t="s">
-        <v>429</v>
-      </c>
-      <c r="D242" t="s">
-        <v>618</v>
+      <c r="C242">
+        <v>157718</v>
+      </c>
+      <c r="D242">
+        <v>612565</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5461,11 +4558,11 @@
       <c r="B243" t="s">
         <v>208</v>
       </c>
-      <c r="C243" t="s">
-        <v>430</v>
-      </c>
-      <c r="D243" t="s">
-        <v>619</v>
+      <c r="C243">
+        <v>156640</v>
+      </c>
+      <c r="D243">
+        <v>32522</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5475,11 +4572,11 @@
       <c r="B244" t="s">
         <v>209</v>
       </c>
-      <c r="C244" t="s">
-        <v>431</v>
-      </c>
-      <c r="D244" t="s">
-        <v>620</v>
+      <c r="C244">
+        <v>139350</v>
+      </c>
+      <c r="D244">
+        <v>716335</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5489,11 +4586,11 @@
       <c r="B245" t="s">
         <v>210</v>
       </c>
-      <c r="C245" t="s">
-        <v>432</v>
-      </c>
-      <c r="D245" t="s">
-        <v>621</v>
+      <c r="C245">
+        <v>136199</v>
+      </c>
+      <c r="D245">
+        <v>230722</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5503,11 +4600,11 @@
       <c r="B246" t="s">
         <v>211</v>
       </c>
-      <c r="C246" t="s">
-        <v>433</v>
-      </c>
-      <c r="D246" t="s">
-        <v>622</v>
+      <c r="C246">
+        <v>131482</v>
+      </c>
+      <c r="D246">
+        <v>154120</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5517,11 +4614,11 @@
       <c r="B247" t="s">
         <v>212</v>
       </c>
-      <c r="C247" t="s">
-        <v>434</v>
-      </c>
-      <c r="D247" t="s">
-        <v>623</v>
+      <c r="C247">
+        <v>125480</v>
+      </c>
+      <c r="D247">
+        <v>171375</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5531,11 +4628,11 @@
       <c r="B248" t="s">
         <v>213</v>
       </c>
-      <c r="C248" t="s">
-        <v>435</v>
-      </c>
-      <c r="D248" t="s">
-        <v>624</v>
+      <c r="C248">
+        <v>108491</v>
+      </c>
+      <c r="D248">
+        <v>140555</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5545,11 +4642,11 @@
       <c r="B249" t="s">
         <v>214</v>
       </c>
-      <c r="C249" t="s">
-        <v>436</v>
-      </c>
-      <c r="D249" t="s">
-        <v>625</v>
+      <c r="C249">
+        <v>107528</v>
+      </c>
+      <c r="D249">
+        <v>345964</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5559,11 +4656,11 @@
       <c r="B250" t="s">
         <v>215</v>
       </c>
-      <c r="C250" t="s">
-        <v>437</v>
-      </c>
-      <c r="D250" t="s">
-        <v>626</v>
+      <c r="C250">
+        <v>104742</v>
+      </c>
+      <c r="D250">
+        <v>63438</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5573,11 +4670,11 @@
       <c r="B251" t="s">
         <v>216</v>
       </c>
-      <c r="C251" t="s">
-        <v>438</v>
-      </c>
-      <c r="D251" t="s">
-        <v>627</v>
+      <c r="C251">
+        <v>102327</v>
+      </c>
+      <c r="D251">
+        <v>154710</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5587,11 +4684,11 @@
       <c r="B252" t="s">
         <v>217</v>
       </c>
-      <c r="C252" t="s">
-        <v>439</v>
-      </c>
-      <c r="D252" t="s">
-        <v>628</v>
+      <c r="C252">
+        <v>95797</v>
+      </c>
+      <c r="D252">
+        <v>213485</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5601,11 +4698,11 @@
       <c r="B253" t="s">
         <v>218</v>
       </c>
-      <c r="C253" t="s">
-        <v>440</v>
-      </c>
-      <c r="D253" t="s">
-        <v>629</v>
+      <c r="C253">
+        <v>87803</v>
+      </c>
+      <c r="D253">
+        <v>314566</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5615,11 +4712,11 @@
       <c r="B254" t="s">
         <v>219</v>
       </c>
-      <c r="C254" t="s">
-        <v>441</v>
-      </c>
-      <c r="D254" t="s">
-        <v>630</v>
+      <c r="C254">
+        <v>78454</v>
+      </c>
+      <c r="D254">
+        <v>98851</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5629,11 +4726,11 @@
       <c r="B255" t="s">
         <v>220</v>
       </c>
-      <c r="C255" t="s">
-        <v>442</v>
-      </c>
-      <c r="D255" t="s">
-        <v>631</v>
+      <c r="C255">
+        <v>76906</v>
+      </c>
+      <c r="D255">
+        <v>216259</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5643,6 +4740,12 @@
       <c r="B256" t="s">
         <v>221</v>
       </c>
+      <c r="C256">
+        <v>72555</v>
+      </c>
+      <c r="D256">
+        <v>267996</v>
+      </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="1">
@@ -5651,8 +4754,11 @@
       <c r="B257" t="s">
         <v>222</v>
       </c>
-      <c r="D257" t="s">
-        <v>632</v>
+      <c r="C257">
+        <v>72268.8</v>
+      </c>
+      <c r="D257">
+        <v>50919</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5662,6 +4768,12 @@
       <c r="B258" t="s">
         <v>223</v>
       </c>
+      <c r="C258">
+        <v>68922</v>
+      </c>
+      <c r="D258">
+        <v>159893</v>
+      </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1">
@@ -5670,8 +4782,11 @@
       <c r="B259" t="s">
         <v>224</v>
       </c>
-      <c r="D259" t="s">
-        <v>633</v>
+      <c r="C259">
+        <v>64533</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5681,8 +4796,11 @@
       <c r="B260" t="s">
         <v>225</v>
       </c>
-      <c r="D260" t="s">
-        <v>634</v>
+      <c r="C260">
+        <v>62437</v>
+      </c>
+      <c r="D260">
+        <v>231869</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5692,8 +4810,11 @@
       <c r="B261" t="s">
         <v>226</v>
       </c>
-      <c r="D261" t="s">
-        <v>635</v>
+      <c r="C261">
+        <v>59295</v>
+      </c>
+      <c r="D261">
+        <v>45776</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5703,6 +4824,12 @@
       <c r="B262" t="s">
         <v>227</v>
       </c>
+      <c r="C262">
+        <v>58879</v>
+      </c>
+      <c r="D262">
+        <v>98645</v>
+      </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="1">
@@ -5711,8 +4838,11 @@
       <c r="B263" t="s">
         <v>228</v>
       </c>
-      <c r="D263" t="s">
-        <v>636</v>
+      <c r="C263">
+        <v>58175</v>
+      </c>
+      <c r="D263">
+        <v>134462</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5722,6 +4852,12 @@
       <c r="B264" t="s">
         <v>229</v>
       </c>
+      <c r="C264">
+        <v>56398</v>
+      </c>
+      <c r="D264">
+        <v>43269</v>
+      </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="1">
@@ -5730,8 +4866,11 @@
       <c r="B265" t="s">
         <v>230</v>
       </c>
-      <c r="D265" t="s">
-        <v>637</v>
+      <c r="C265">
+        <v>54600</v>
+      </c>
+      <c r="D265">
+        <v>45376</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5741,6 +4880,12 @@
       <c r="B266" t="s">
         <v>231</v>
       </c>
+      <c r="C266">
+        <v>45738</v>
+      </c>
+      <c r="D266">
+        <v>24071</v>
+      </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="1">
@@ -5749,8 +4894,11 @@
       <c r="B267" t="s">
         <v>232</v>
       </c>
-      <c r="D267" t="s">
-        <v>638</v>
+      <c r="C267">
+        <v>42440</v>
+      </c>
+      <c r="D267">
+        <v>205218</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5760,6 +4908,12 @@
       <c r="B268" t="s">
         <v>233</v>
       </c>
+      <c r="C268">
+        <v>34243</v>
+      </c>
+      <c r="D268">
+        <v>241424</v>
+      </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="1">
@@ -5768,8 +4922,403 @@
       <c r="B269" t="s">
         <v>234</v>
       </c>
-      <c r="D269" t="s">
-        <v>639</v>
+      <c r="C269">
+        <v>27800</v>
+      </c>
+      <c r="D269">
+        <v>97372</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>235</v>
+      </c>
+      <c r="C270">
+        <v>27770</v>
+      </c>
+      <c r="D270">
+        <v>123582</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>236</v>
+      </c>
+      <c r="C271">
+        <v>26535</v>
+      </c>
+      <c r="D271">
+        <v>332134</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>237</v>
+      </c>
+      <c r="C272">
+        <v>22864</v>
+      </c>
+      <c r="D272">
+        <v>78957</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>238</v>
+      </c>
+      <c r="C273">
+        <v>21635</v>
+      </c>
+      <c r="D273">
+        <v>77894</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>239</v>
+      </c>
+      <c r="C274">
+        <v>14914</v>
+      </c>
+      <c r="D274">
+        <v>43820</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>240</v>
+      </c>
+      <c r="C275">
+        <v>13288</v>
+      </c>
+      <c r="D275">
+        <v>30339</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>241</v>
+      </c>
+      <c r="C276">
+        <v>9526</v>
+      </c>
+      <c r="D276">
+        <v>147715</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>242</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>243</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>385801</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>244</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>245</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>185435</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>246</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>247</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>16860</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>248</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>249</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>124500</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>250</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>251</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>201316</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>252</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>253</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>30827</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>254</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>255</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>42270</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>256</v>
+      </c>
+      <c r="C291">
+        <v>240965</v>
+      </c>
+      <c r="D291">
+        <v>245240</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>257</v>
+      </c>
+      <c r="C292">
+        <v>205418</v>
+      </c>
+      <c r="D292">
+        <v>554897</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>258</v>
+      </c>
+      <c r="C293">
+        <v>159824</v>
+      </c>
+      <c r="D293">
+        <v>82230</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>259</v>
+      </c>
+      <c r="C294">
+        <v>87942</v>
+      </c>
+      <c r="D294">
+        <v>173604</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>260</v>
+      </c>
+      <c r="C295">
+        <v>69759</v>
+      </c>
+      <c r="D295">
+        <v>92818</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>261</v>
+      </c>
+      <c r="C296">
+        <v>48300</v>
+      </c>
+      <c r="D296">
+        <v>290382</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>262</v>
+      </c>
+      <c r="C297">
+        <v>27184</v>
+      </c>
+      <c r="D297">
+        <v>27777</v>
       </c>
     </row>
   </sheetData>

--- a/miks.xlsx
+++ b/miks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="212">
   <si>
     <t>клиент</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Томас ООО, г.Хабаровск</t>
   </si>
   <si>
-    <t>СТОМЕКС ООО г.Благовещенск</t>
-  </si>
-  <si>
     <t>Миоль ООО г.Хабаровск</t>
   </si>
   <si>
@@ -193,63 +190,21 @@
     <t>Шаркова Марина Александровна Индивидуальный  предприниматель г.Хабаровск, ул.Большая,10/81</t>
   </si>
   <si>
-    <t>Авиценна ООО г.Хабаровск.</t>
-  </si>
-  <si>
-    <t>Стом. клиника Восток, ООО г.Хабаровск</t>
-  </si>
-  <si>
     <t>Вита г.Хабаровск</t>
   </si>
   <si>
-    <t>Евростом ООО г.Хабаровск</t>
-  </si>
-  <si>
-    <t>Константа Краснореченская ООО г. Хабаровск, Люмьер.</t>
-  </si>
-  <si>
-    <t>Капитал ООО г.Хабаровск</t>
-  </si>
-  <si>
-    <t>Настроение, ООО г.Хабаровск</t>
-  </si>
-  <si>
-    <t>Альфа-Стом ООО, г.Хабаровск</t>
-  </si>
-  <si>
-    <t>Вита-Дент  ООО п.Ванино</t>
-  </si>
-  <si>
     <t>Клиника Стив г.Благовещенск,</t>
   </si>
   <si>
     <t>Эстомика ООО г.Хабаровск</t>
   </si>
   <si>
-    <t>Нью Смайл  г.Хабаровск, работают по наличию Клиентов</t>
-  </si>
-  <si>
     <t>АБ, ООО г.Хабаровск</t>
   </si>
   <si>
-    <t>ДВ ЭлектроРесурсГрупп ООО г.Хабаровск(бывш. Владислава судились) предоплата</t>
-  </si>
-  <si>
-    <t>Дента Мед ООО г.Комсомольск-на-Амуре</t>
-  </si>
-  <si>
-    <t>Инмед плюс ООО г.Хабаровск</t>
-  </si>
-  <si>
-    <t>Клиника доктора Горохова ООО г.Свободный</t>
-  </si>
-  <si>
     <t>МАЛИНА ООО г.Хабаровск</t>
   </si>
   <si>
-    <t>Наша Клиника-Дент ООО г.Хабаровск</t>
-  </si>
-  <si>
     <t>ЗТ лаборатория Назарова ООО г.Хабаровск</t>
   </si>
   <si>
@@ -286,9 +241,6 @@
     <t>Семченко Виталий Викторович, г.Хабаровск</t>
   </si>
   <si>
-    <t>Петров Евгений Михайлович г. Хабаровск</t>
-  </si>
-  <si>
     <t>Стоматология для всей семьи ООО г.Биробиджан</t>
   </si>
   <si>
@@ -409,9 +361,6 @@
     <t>Дентал Платинум ООО г.Хабаровск (Владислава)</t>
   </si>
   <si>
-    <t>Стомпрактика, ООО г.Хабаровск ,ул.Тихоокеанская,218а</t>
-  </si>
-  <si>
     <t>Артстом ООО г.Благовещенск</t>
   </si>
   <si>
@@ -442,9 +391,6 @@
     <t>Диана ООО, г.Хабаровск</t>
   </si>
   <si>
-    <t>Клиника Головина ООО, г. Хабаровск</t>
-  </si>
-  <si>
     <t>Денталик ООО, г.Хабаровск</t>
   </si>
   <si>
@@ -454,84 +400,30 @@
     <t>Дентал-Комплекс ООО, г.Хабаровск</t>
   </si>
   <si>
-    <t>Аполлония ООО г.Хабаровск</t>
-  </si>
-  <si>
     <t>Стоматологическая клиника 32 ООО г.Хабаровск</t>
   </si>
   <si>
-    <t>Чичикова Татьяна Владимировна (Некрасовка)</t>
-  </si>
-  <si>
     <t>Центр дентальной имплантации, ООО г.Комсомольск</t>
   </si>
   <si>
     <t>Эла ООО г.Комсомольск-на-Амуре</t>
   </si>
   <si>
-    <t>Экстра-стом ООО г.Благовещенск</t>
-  </si>
-  <si>
     <t>ВМГ ООО  г.Хабаровск   пер.Дзержинского, 11В.</t>
   </si>
   <si>
-    <t>Стоматология Михальского ООО г.Благовещенск</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бриллиантовый стиль + ООО г.Хабаровск, </t>
-  </si>
-  <si>
-    <t>Скайс ООО г.Благовещенск</t>
-  </si>
-  <si>
     <t>Стоматолог и Я ООО г.Хабаровск (Некрасовка)</t>
   </si>
   <si>
     <t>КОНРАД, ООО г.Хабаровск</t>
   </si>
   <si>
-    <t xml:space="preserve">Дент ООО,г. Благовещенск, </t>
-  </si>
-  <si>
-    <t>Стоматолог и Я г.Свободный</t>
-  </si>
-  <si>
-    <t>Ростик ООО г. Благовещенск</t>
-  </si>
-  <si>
-    <t>Ваш выбор ООО г.Благовещенск</t>
-  </si>
-  <si>
-    <t>Вита-Дент ООО, г.Хабаровск</t>
-  </si>
-  <si>
-    <t>Денталика ДВ ООО г.Хабаровск, Судимся с ними, не отгружать</t>
-  </si>
-  <si>
-    <t>Ортофрэш ООО г.Хабаровск</t>
-  </si>
-  <si>
-    <t>Пятёрка ООО, г.Хабаровск</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Статус ООО, г.Хабаровск, работают по записи </t>
-  </si>
-  <si>
     <t>СТАТУС-ДЕНТ ООО г.Благовещенск</t>
   </si>
   <si>
     <t>Стоматология ООО пгт.Магдагачи.</t>
   </si>
   <si>
-    <t>Стомсмайл ООО г.Хабаровск</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стомэкс ООО г.Хабаровск , </t>
-  </si>
-  <si>
-    <t>Татьяна ООО,  г.Хабаровск</t>
-  </si>
-  <si>
     <t>Гавриленко Евгений Викторович ИП, г.Благовещенск</t>
   </si>
   <si>
@@ -688,9 +580,6 @@
     <t>Мастер ООО г.Хабаровск, ул.Шеронова,8 корп.3</t>
   </si>
   <si>
-    <t>Дентес ООО, г.Комсомольск-на-Амуре</t>
-  </si>
-  <si>
     <t>Дентал Стиль ООО, г.Хабаровск</t>
   </si>
   <si>
@@ -740,48 +629,6 @@
   </si>
   <si>
     <t>Эстелайт ООО г.Благовещенск</t>
-  </si>
-  <si>
-    <t>(не рабочий) Дента-Люкс ООО г. Комсомольск-на -Амуре</t>
-  </si>
-  <si>
-    <t>А-СТОМ ООО г.Благовещенск</t>
-  </si>
-  <si>
-    <t>АЙДЕНТ ООО г.Хабаровск, ( везём на ул. Гамарника)</t>
-  </si>
-  <si>
-    <t>Аурика ООО г. Благовещенск</t>
-  </si>
-  <si>
-    <t>Богаченко О.С. ИП г.Благовещенск</t>
-  </si>
-  <si>
-    <t>ВИПСТОМ ООО г.Хабаровск</t>
-  </si>
-  <si>
-    <t>Дантист+ ООО г. Благовещенск( Закрыт)</t>
-  </si>
-  <si>
-    <t>КИЧ-СТОМ ООО г.Благовещенск</t>
-  </si>
-  <si>
-    <t>ЛазерЛэнд ООО, г. Биробиджан, переоформлен и переехал на ИП Вышар</t>
-  </si>
-  <si>
-    <t>МАРИЯ ОО г. Благовещенск</t>
-  </si>
-  <si>
-    <t>Стоматолог ООО г.Хабаровск</t>
-  </si>
-  <si>
-    <t>Улыбка Плюс ООО г.Советская Гавань</t>
-  </si>
-  <si>
-    <t>Форттрейд  ООО,  г.Хабаровск Сеть клиник</t>
-  </si>
-  <si>
-    <t>Эстелайт ДВ ООО г. Благовещенск</t>
   </si>
   <si>
     <t>Дамиров Рамин Хаким Оглы г.Хабаровск</t>
@@ -1160,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D297"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1725,3599 +1572,2563 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41">
-        <v>91481</v>
+        <v>85933</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>14729</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42">
-        <v>85933</v>
+        <v>82212</v>
       </c>
       <c r="D42">
-        <v>14729</v>
+        <v>230179</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43">
-        <v>82212</v>
+        <v>77596</v>
       </c>
       <c r="D43">
-        <v>230179</v>
+        <v>88947</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44">
-        <v>77596</v>
+        <v>73493</v>
       </c>
       <c r="D44">
-        <v>88947</v>
+        <v>97820</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45">
-        <v>73493</v>
+        <v>73393</v>
       </c>
       <c r="D45">
-        <v>97820</v>
+        <v>94537</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46">
-        <v>73393</v>
+        <v>73370</v>
       </c>
       <c r="D46">
-        <v>94537</v>
+        <v>113512</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47">
-        <v>73370</v>
+        <v>68602</v>
       </c>
       <c r="D47">
-        <v>113512</v>
+        <v>38884</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48">
-        <v>68602</v>
+        <v>64165</v>
       </c>
       <c r="D48">
-        <v>38884</v>
+        <v>100444</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <v>64165</v>
       </c>
       <c r="D49">
-        <v>100444</v>
+        <v>65023</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50">
-        <v>64165</v>
+        <v>42151</v>
       </c>
       <c r="D50">
-        <v>65023</v>
+        <v>100444</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
       </c>
       <c r="C51">
         <v>42151</v>
       </c>
       <c r="D51">
-        <v>100444</v>
+        <v>65023</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
       </c>
       <c r="C52">
-        <v>42151</v>
+        <v>56901</v>
       </c>
       <c r="D52">
-        <v>65023</v>
+        <v>71444</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
       </c>
       <c r="C53">
-        <v>56901</v>
+        <v>50608</v>
       </c>
       <c r="D53">
-        <v>71444</v>
+        <v>103978</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
       <c r="C54">
-        <v>50608</v>
+        <v>48618</v>
       </c>
       <c r="D54">
-        <v>103978</v>
+        <v>126134</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
       <c r="C55">
-        <v>48618</v>
+        <v>47750.99</v>
       </c>
       <c r="D55">
-        <v>126134</v>
+        <v>115670</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
       <c r="C56">
-        <v>47750.99</v>
+        <v>29677</v>
       </c>
       <c r="D56">
-        <v>115670</v>
+        <v>25384</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
       </c>
       <c r="C57">
-        <v>29677</v>
+        <v>26848</v>
       </c>
       <c r="D57">
-        <v>25384</v>
+        <v>36878</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
       <c r="C58">
-        <v>26848</v>
+        <v>26316</v>
       </c>
       <c r="D58">
-        <v>36878</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
       </c>
       <c r="C59">
-        <v>26316</v>
+        <v>18585</v>
       </c>
       <c r="D59">
-        <v>4073</v>
+        <v>33681</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
       </c>
       <c r="C60">
-        <v>18585</v>
+        <v>8563</v>
       </c>
       <c r="D60">
-        <v>33681</v>
+        <v>47595</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
       </c>
       <c r="C61">
-        <v>12586</v>
+        <v>2730</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>91552</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
       </c>
       <c r="C62">
-        <v>9028</v>
+        <v>2283</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>98308</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
         <v>61</v>
       </c>
       <c r="C63">
-        <v>8563</v>
+        <v>219410</v>
       </c>
       <c r="D63">
-        <v>47595</v>
+        <v>228298</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
         <v>62</v>
       </c>
       <c r="C64">
-        <v>7732</v>
+        <v>465280</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>201135</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
       </c>
       <c r="C65">
-        <v>5715</v>
+        <v>912205</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>745644</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
       </c>
       <c r="C66">
-        <v>4141</v>
+        <v>716736</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>645814</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
       </c>
       <c r="C67">
-        <v>4085</v>
+        <v>546253.25</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>890624</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
         <v>66</v>
       </c>
       <c r="C68">
-        <v>3041</v>
+        <v>290297</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>58322</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
       </c>
       <c r="C69">
-        <v>2895</v>
+        <v>244335</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>102213</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
         <v>68</v>
       </c>
       <c r="C70">
-        <v>2730</v>
+        <v>178786</v>
       </c>
       <c r="D70">
-        <v>91552</v>
+        <v>227159</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
         <v>69</v>
       </c>
       <c r="C71">
-        <v>2283</v>
+        <v>161796.1</v>
       </c>
       <c r="D71">
-        <v>98308</v>
+        <v>190147</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
         <v>70</v>
       </c>
       <c r="C72">
-        <v>2245.5</v>
+        <v>136579</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>19485</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>59875</v>
       </c>
       <c r="D73">
-        <v>228298</v>
+        <v>9944</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
+        <v>93</v>
+      </c>
+      <c r="B74" t="s">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
-        <v>71</v>
-      </c>
       <c r="C74">
-        <v>0</v>
+        <v>59323</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>73938</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
+        <v>94</v>
+      </c>
+      <c r="B75" t="s">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
-        <v>71</v>
-      </c>
       <c r="C75">
-        <v>219410</v>
+        <v>53706</v>
       </c>
       <c r="D75">
-        <v>228298</v>
+        <v>20704</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
+        <v>95</v>
+      </c>
+      <c r="B76" t="s">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
-        <v>71</v>
-      </c>
       <c r="C76">
-        <v>219410</v>
+        <v>40893</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>151299</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1">
+        <v>97</v>
+      </c>
+      <c r="B77" t="s">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
-        <v>72</v>
-      </c>
       <c r="C77">
-        <v>0</v>
+        <v>2265063.01</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1820026</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
+        <v>98</v>
+      </c>
+      <c r="B78" t="s">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>73</v>
-      </c>
       <c r="C78">
-        <v>0</v>
+        <v>958162</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>606600</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
+        <v>99</v>
+      </c>
+      <c r="B79" t="s">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>74</v>
-      </c>
       <c r="C79">
-        <v>0</v>
+        <v>850270</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>942612</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
-        <v>75</v>
-      </c>
       <c r="C80">
-        <v>0</v>
+        <v>719310</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>889811</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1">
+        <v>101</v>
+      </c>
+      <c r="B81" t="s">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
-        <v>76</v>
-      </c>
       <c r="C81">
-        <v>0</v>
+        <v>630865</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>844662</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1">
+        <v>102</v>
+      </c>
+      <c r="B82" t="s">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
-        <v>76</v>
-      </c>
       <c r="C82">
-        <v>0</v>
+        <v>626105</v>
       </c>
       <c r="D82">
-        <v>201135</v>
+        <v>342399</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1">
+        <v>103</v>
+      </c>
+      <c r="B83" t="s">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
-        <v>76</v>
-      </c>
       <c r="C83">
-        <v>465280</v>
+        <v>586888.4</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>843383</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1">
+        <v>104</v>
+      </c>
+      <c r="B84" t="s">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
-        <v>76</v>
-      </c>
       <c r="C84">
-        <v>465280</v>
+        <v>486162.5</v>
       </c>
       <c r="D84">
-        <v>201135</v>
+        <v>596894</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1">
+        <v>105</v>
+      </c>
+      <c r="B85" t="s">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
-        <v>77</v>
-      </c>
       <c r="C85">
-        <v>0</v>
+        <v>434577</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>474537</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1">
+        <v>106</v>
+      </c>
+      <c r="B86" t="s">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
-        <v>78</v>
-      </c>
       <c r="C86">
-        <v>912205</v>
+        <v>413627</v>
       </c>
       <c r="D86">
-        <v>745644</v>
+        <v>454228</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1">
+        <v>107</v>
+      </c>
+      <c r="B87" t="s">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
-        <v>79</v>
-      </c>
       <c r="C87">
-        <v>716736</v>
+        <v>403915</v>
       </c>
       <c r="D87">
-        <v>645814</v>
+        <v>355152</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1">
+        <v>108</v>
+      </c>
+      <c r="B88" t="s">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
-        <v>80</v>
-      </c>
       <c r="C88">
-        <v>546253.25</v>
+        <v>383730</v>
       </c>
       <c r="D88">
-        <v>890624</v>
+        <v>416406</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1">
+        <v>109</v>
+      </c>
+      <c r="B89" t="s">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
-        <v>81</v>
-      </c>
       <c r="C89">
-        <v>290297</v>
+        <v>383648</v>
       </c>
       <c r="D89">
-        <v>58322</v>
+        <v>181146</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1">
+        <v>110</v>
+      </c>
+      <c r="B90" t="s">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
-        <v>82</v>
-      </c>
       <c r="C90">
-        <v>244335</v>
+        <v>339329</v>
       </c>
       <c r="D90">
-        <v>102213</v>
+        <v>869647.59</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1">
+        <v>111</v>
+      </c>
+      <c r="B91" t="s">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
-        <v>83</v>
-      </c>
       <c r="C91">
-        <v>178786</v>
+        <v>334191</v>
       </c>
       <c r="D91">
-        <v>227159</v>
+        <v>415762</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1">
+        <v>112</v>
+      </c>
+      <c r="B92" t="s">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
-        <v>84</v>
-      </c>
       <c r="C92">
-        <v>161796.1</v>
+        <v>332874.02</v>
       </c>
       <c r="D92">
-        <v>190147</v>
+        <v>274830</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1">
+        <v>113</v>
+      </c>
+      <c r="B93" t="s">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
-        <v>85</v>
-      </c>
       <c r="C93">
-        <v>136579</v>
+        <v>326934</v>
       </c>
       <c r="D93">
-        <v>19485</v>
+        <v>151504</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
+        <v>114</v>
+      </c>
+      <c r="B94" t="s">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
-        <v>86</v>
-      </c>
       <c r="C94">
-        <v>59875</v>
+        <v>297583.5</v>
       </c>
       <c r="D94">
-        <v>9944</v>
+        <v>440770</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1">
+        <v>115</v>
+      </c>
+      <c r="B95" t="s">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
-        <v>87</v>
-      </c>
       <c r="C95">
-        <v>59323</v>
+        <v>272482.03</v>
       </c>
       <c r="D95">
-        <v>73938</v>
+        <v>315213</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1">
+        <v>116</v>
+      </c>
+      <c r="B96" t="s">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
-        <v>88</v>
-      </c>
       <c r="C96">
-        <v>53706</v>
+        <v>270139</v>
       </c>
       <c r="D96">
-        <v>20704</v>
+        <v>140494</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1">
+        <v>117</v>
+      </c>
+      <c r="B97" t="s">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
-        <v>89</v>
-      </c>
       <c r="C97">
-        <v>40893</v>
+        <v>259662</v>
       </c>
       <c r="D97">
-        <v>151299</v>
+        <v>188105</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1">
+        <v>118</v>
+      </c>
+      <c r="B98" t="s">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
-        <v>90</v>
-      </c>
       <c r="C98">
-        <v>0</v>
+        <v>250651</v>
       </c>
       <c r="D98">
-        <v>18539</v>
+        <v>65915</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1">
+        <v>119</v>
+      </c>
+      <c r="B99" t="s">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
-        <v>91</v>
-      </c>
       <c r="C99">
-        <v>2265063.01</v>
+        <v>234529</v>
       </c>
       <c r="D99">
-        <v>1820026</v>
+        <v>144877</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1">
+        <v>120</v>
+      </c>
+      <c r="B100" t="s">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
-        <v>92</v>
-      </c>
       <c r="C100">
-        <v>958162</v>
+        <v>227090</v>
       </c>
       <c r="D100">
-        <v>606600</v>
+        <v>329626</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1">
+        <v>121</v>
+      </c>
+      <c r="B101" t="s">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
-        <v>93</v>
-      </c>
       <c r="C101">
-        <v>850270</v>
+        <v>219214</v>
       </c>
       <c r="D101">
-        <v>942612</v>
+        <v>149383.36</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1">
+        <v>122</v>
+      </c>
+      <c r="B102" t="s">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
-        <v>94</v>
-      </c>
       <c r="C102">
-        <v>719310</v>
+        <v>218793</v>
       </c>
       <c r="D102">
-        <v>889811</v>
+        <v>187161</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1">
+        <v>123</v>
+      </c>
+      <c r="B103" t="s">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
-        <v>95</v>
-      </c>
       <c r="C103">
-        <v>630865</v>
+        <v>216231</v>
       </c>
       <c r="D103">
-        <v>844662</v>
+        <v>240674</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1">
+        <v>124</v>
+      </c>
+      <c r="B104" t="s">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
-        <v>96</v>
-      </c>
       <c r="C104">
-        <v>626105</v>
+        <v>197241</v>
       </c>
       <c r="D104">
-        <v>342399</v>
+        <v>139695</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1">
+        <v>125</v>
+      </c>
+      <c r="B105" t="s">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
-        <v>97</v>
-      </c>
       <c r="C105">
-        <v>586888.4</v>
+        <v>173707</v>
       </c>
       <c r="D105">
-        <v>843383</v>
+        <v>196719</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1">
+        <v>126</v>
+      </c>
+      <c r="B106" t="s">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
-        <v>98</v>
-      </c>
       <c r="C106">
-        <v>486162.5</v>
+        <v>164289</v>
       </c>
       <c r="D106">
-        <v>596894</v>
+        <v>57852</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1">
+        <v>127</v>
+      </c>
+      <c r="B107" t="s">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
-        <v>99</v>
-      </c>
       <c r="C107">
-        <v>434577</v>
+        <v>133831</v>
       </c>
       <c r="D107">
-        <v>474537</v>
+        <v>64596</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1">
+        <v>128</v>
+      </c>
+      <c r="B108" t="s">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
-        <v>100</v>
-      </c>
       <c r="C108">
-        <v>413627</v>
+        <v>127313</v>
       </c>
       <c r="D108">
-        <v>454228</v>
+        <v>118634</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1">
+        <v>129</v>
+      </c>
+      <c r="B109" t="s">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
-        <v>101</v>
-      </c>
       <c r="C109">
-        <v>403915</v>
+        <v>101515</v>
       </c>
       <c r="D109">
-        <v>355152</v>
+        <v>258653</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1">
+        <v>130</v>
+      </c>
+      <c r="B110" t="s">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
-        <v>102</v>
-      </c>
       <c r="C110">
-        <v>383730</v>
+        <v>93515</v>
       </c>
       <c r="D110">
-        <v>416406</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B111" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C111">
-        <v>383648</v>
+        <v>93515</v>
       </c>
       <c r="D111">
-        <v>181146</v>
+        <v>65465</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B112" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C112">
-        <v>339329</v>
+        <v>91298</v>
       </c>
       <c r="D112">
-        <v>869647.59</v>
+        <v>57277</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C113">
-        <v>334191</v>
+        <v>90000</v>
       </c>
       <c r="D113">
-        <v>415762</v>
+        <v>1035386</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C114">
-        <v>332874.02</v>
+        <v>90000</v>
       </c>
       <c r="D114">
-        <v>274830</v>
+        <v>219540</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C115">
-        <v>326934</v>
+        <v>509441</v>
       </c>
       <c r="D115">
-        <v>151504</v>
+        <v>1035386</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B116" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C116">
-        <v>297583.5</v>
+        <v>509441</v>
       </c>
       <c r="D116">
-        <v>440770</v>
+        <v>219540</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B117" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C117">
-        <v>272482.03</v>
+        <v>78830</v>
       </c>
       <c r="D117">
-        <v>315213</v>
+        <v>91246</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B118" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C118">
-        <v>270139</v>
+        <v>75162</v>
       </c>
       <c r="D118">
-        <v>140494</v>
+        <v>641394</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B119" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C119">
-        <v>259662</v>
+        <v>75162</v>
       </c>
       <c r="D119">
-        <v>188105</v>
+        <v>186112</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B120" t="s">
         <v>112</v>
       </c>
       <c r="C120">
-        <v>250651</v>
+        <v>248551</v>
       </c>
       <c r="D120">
-        <v>65915</v>
+        <v>641394</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C121">
-        <v>234529</v>
+        <v>248551</v>
       </c>
       <c r="D121">
-        <v>144877</v>
+        <v>186112</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C122">
-        <v>227090</v>
+        <v>74222</v>
       </c>
       <c r="D122">
-        <v>329626</v>
+        <v>283565</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B123" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C123">
-        <v>219214</v>
+        <v>71223</v>
       </c>
       <c r="D123">
-        <v>149383.36</v>
+        <v>86503</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C124">
-        <v>218793</v>
+        <v>53708</v>
       </c>
       <c r="D124">
-        <v>187161</v>
+        <v>62584</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125">
-        <v>216231</v>
+        <v>53664</v>
       </c>
       <c r="D125">
-        <v>240674</v>
+        <v>248573</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C126">
-        <v>197241</v>
+        <v>43719</v>
       </c>
       <c r="D126">
-        <v>139695</v>
+        <v>8786</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="B127" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C127">
-        <v>173707</v>
+        <v>42767</v>
       </c>
       <c r="D127">
-        <v>196719</v>
+        <v>133262</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B128" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C128">
-        <v>164289</v>
+        <v>35793</v>
       </c>
       <c r="D128">
-        <v>57852</v>
+        <v>32887</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B129" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C129">
-        <v>133831</v>
+        <v>34001</v>
       </c>
       <c r="D129">
-        <v>64596</v>
+        <v>122110</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C130">
-        <v>127313</v>
+        <v>31118</v>
       </c>
       <c r="D130">
-        <v>118634</v>
+        <v>13800</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B131" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C131">
-        <v>101515</v>
+        <v>31118</v>
       </c>
       <c r="D131">
-        <v>258653</v>
+        <v>57514</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="B132" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C132">
-        <v>93515</v>
+        <v>27645</v>
       </c>
       <c r="D132">
-        <v>27900</v>
+        <v>36691</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="B133" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133">
-        <v>93515</v>
+        <v>26500</v>
       </c>
       <c r="D133">
-        <v>65465</v>
+        <v>251469</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="B134" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>365162</v>
       </c>
       <c r="D134">
-        <v>27900</v>
+        <v>251469</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="B135" t="s">
         <v>124</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>24548</v>
       </c>
       <c r="D135">
-        <v>65465</v>
+        <v>53930</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="B136" t="s">
         <v>125</v>
       </c>
       <c r="C136">
-        <v>91298</v>
+        <v>16888</v>
       </c>
       <c r="D136">
-        <v>57277</v>
+        <v>45660</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="B137" t="s">
         <v>126</v>
       </c>
       <c r="C137">
-        <v>90000</v>
+        <v>9519</v>
       </c>
       <c r="D137">
-        <v>1035386</v>
+        <v>356532</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="B138" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C138">
-        <v>90000</v>
+        <v>8818</v>
       </c>
       <c r="D138">
-        <v>219540</v>
+        <v>13086</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="B139" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C139">
-        <v>509441</v>
+        <v>7881</v>
       </c>
       <c r="D139">
-        <v>1035386</v>
+        <v>108317</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="B140" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C140">
-        <v>509441</v>
+        <v>6900</v>
       </c>
       <c r="D140">
-        <v>219540</v>
+        <v>183582</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="B141" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C141">
-        <v>78830</v>
+        <v>325886</v>
       </c>
       <c r="D141">
-        <v>91246</v>
+        <v>183582</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="B142" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C142">
-        <v>75162</v>
+        <v>6531</v>
       </c>
       <c r="D142">
-        <v>641394</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="B143" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C143">
-        <v>75162</v>
+        <v>5921</v>
       </c>
       <c r="D143">
-        <v>186112</v>
+        <v>25145</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="B144" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C144">
-        <v>248551</v>
+        <v>4261</v>
       </c>
       <c r="D144">
-        <v>641394</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="B145" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C145">
-        <v>248551</v>
+        <v>3900</v>
       </c>
       <c r="D145">
-        <v>186112</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="B146" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C146">
-        <v>74222</v>
+        <v>275219</v>
       </c>
       <c r="D146">
-        <v>283565</v>
+        <v>1054131</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="B147" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C147">
-        <v>71223</v>
+        <v>503277</v>
       </c>
       <c r="D147">
-        <v>86503</v>
+        <v>355101</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="B148" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C148">
-        <v>57546</v>
+        <v>607075</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>807630</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="B149" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C149">
-        <v>53708</v>
+        <v>590577</v>
       </c>
       <c r="D149">
-        <v>62584</v>
+        <v>152370</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="B150" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C150">
-        <v>53664</v>
+        <v>322864</v>
       </c>
       <c r="D150">
-        <v>248573</v>
+        <v>317759</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="B151" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C151">
-        <v>43719</v>
+        <v>201131</v>
       </c>
       <c r="D151">
-        <v>8786</v>
+        <v>130778</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="B152" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C152">
-        <v>42767</v>
+        <v>51062</v>
       </c>
       <c r="D152">
-        <v>133262</v>
+        <v>153903</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="B153" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C153">
-        <v>35793</v>
+        <v>47991</v>
       </c>
       <c r="D153">
-        <v>32887</v>
+        <v>48304</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="B154" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C154">
-        <v>34001</v>
+        <v>44817</v>
       </c>
       <c r="D154">
-        <v>122110</v>
+        <v>91176</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="B155" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C155">
-        <v>31118</v>
+        <v>34547.9</v>
       </c>
       <c r="D155">
-        <v>13800</v>
+        <v>96863</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="B156" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C156">
-        <v>31118</v>
+        <v>1339899</v>
       </c>
       <c r="D156">
-        <v>57514</v>
+        <v>609773</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="B157" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>744420</v>
       </c>
       <c r="D157">
-        <v>13800</v>
+        <v>434156</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="B158" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>599558</v>
       </c>
       <c r="D158">
-        <v>57514</v>
+        <v>392415</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="B159" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C159">
-        <v>27645</v>
+        <v>576505</v>
       </c>
       <c r="D159">
-        <v>36691</v>
+        <v>1285915</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="B160" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C160">
-        <v>26500</v>
+        <v>573500</v>
       </c>
       <c r="D160">
-        <v>251469</v>
+        <v>480245</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="B161" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C161">
-        <v>26500</v>
+        <v>485955.38</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>226682</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="B162" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C162">
-        <v>365162</v>
+        <v>450668</v>
       </c>
       <c r="D162">
-        <v>251469</v>
+        <v>530854</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="B163" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C163">
-        <v>365162</v>
+        <v>450101</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>319588</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c r="B164" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C164">
-        <v>24548</v>
+        <v>415179</v>
       </c>
       <c r="D164">
-        <v>53930</v>
+        <v>308365</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="B165" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C165">
-        <v>24533</v>
+        <v>402081</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>195142</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="B166" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C166">
-        <v>16888</v>
+        <v>363034</v>
       </c>
       <c r="D166">
-        <v>45660</v>
+        <v>107648</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="B167" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C167">
-        <v>9519</v>
+        <v>354418.31</v>
       </c>
       <c r="D167">
-        <v>356532</v>
+        <v>175367</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="B168" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C168">
-        <v>8818</v>
+        <v>338770.02</v>
       </c>
       <c r="D168">
-        <v>13086</v>
+        <v>319767</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="B169" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C169">
-        <v>8815</v>
+        <v>337533</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>576026</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="B170" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C170">
-        <v>7881</v>
+        <v>317816</v>
       </c>
       <c r="D170">
-        <v>108317</v>
+        <v>300244</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="B171" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C171">
-        <v>7122</v>
+        <v>307419</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>163131</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="B172" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C172">
-        <v>6900</v>
+        <v>301891</v>
       </c>
       <c r="D172">
-        <v>183582</v>
+        <v>64186</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="B173" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C173">
-        <v>6900</v>
+        <v>298342</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>182979</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="B174" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C174">
-        <v>325886</v>
+        <v>287212</v>
       </c>
       <c r="D174">
-        <v>183582</v>
+        <v>306935</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="B175" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C175">
-        <v>325886</v>
+        <v>279386.91</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>211906</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="B176" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C176">
-        <v>6531</v>
+        <v>241138.38</v>
       </c>
       <c r="D176">
-        <v>4200</v>
+        <v>179428</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="B177" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C177">
-        <v>6027</v>
+        <v>224526.7</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>45921</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="B178" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C178">
-        <v>5921</v>
+        <v>216231</v>
       </c>
       <c r="D178">
-        <v>25145</v>
+        <v>295707</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="B179" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C179">
-        <v>5100</v>
+        <v>191431</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>171046</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="B180" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C180">
-        <v>4993</v>
+        <v>180697</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>112402</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="B181" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C181">
-        <v>4980</v>
+        <v>176670</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>535404</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="B182" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C182">
-        <v>4261</v>
+        <v>160176</v>
       </c>
       <c r="D182">
-        <v>1400</v>
+        <v>352155.08</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="B183" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C183">
-        <v>3900</v>
+        <v>157718</v>
       </c>
       <c r="D183">
-        <v>3900</v>
+        <v>612565</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="B184" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C184">
-        <v>3200.7</v>
+        <v>156640</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>32522</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="B185" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C185">
-        <v>2750</v>
+        <v>139350</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>716335</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="B186" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C186">
-        <v>1929</v>
+        <v>136199</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>230722</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="B187" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C187">
-        <v>100</v>
+        <v>131482</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>154120</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="B188" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>125480</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>171375</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="B189" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>108491</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>140555</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="B190" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>107528</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>345964</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="B191" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>104742</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>63438</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="B192" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>102327</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>154710</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="B193" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>95797</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>213485</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="B194" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>87803</v>
       </c>
       <c r="D194">
-        <v>72377</v>
+        <v>314566</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="B195" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>78454</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>98851</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="B196" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>76906</v>
       </c>
       <c r="D196">
-        <v>1054131</v>
+        <v>216259</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="B197" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>72555</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>267996</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="B198" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C198">
-        <v>275219</v>
+        <v>72268.8</v>
       </c>
       <c r="D198">
-        <v>1054131</v>
+        <v>50919</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="B199" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="C199">
-        <v>275219</v>
+        <v>68922</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>159893</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="B200" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>62437</v>
       </c>
       <c r="D200">
-        <v>355101</v>
+        <v>231869</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="B201" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>59295</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="B202" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="C202">
-        <v>503277</v>
+        <v>58879</v>
       </c>
       <c r="D202">
-        <v>355101</v>
+        <v>98645</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="B203" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="C203">
-        <v>503277</v>
+        <v>58175</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>134462</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="B204" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>56398</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>43269</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="B205" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>54600</v>
       </c>
       <c r="D205">
-        <v>150303</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="B206" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>45738</v>
       </c>
       <c r="D206">
-        <v>5250</v>
+        <v>24071</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="B207" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="C207">
-        <v>607075</v>
+        <v>42440</v>
       </c>
       <c r="D207">
-        <v>807630</v>
+        <v>205218</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="B208" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="C208">
-        <v>590577</v>
+        <v>34243</v>
       </c>
       <c r="D208">
-        <v>152370</v>
+        <v>241424</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="B209" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="C209">
-        <v>322864</v>
+        <v>27800</v>
       </c>
       <c r="D209">
-        <v>317759</v>
+        <v>97372</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="B210" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="C210">
-        <v>201131</v>
+        <v>27770</v>
       </c>
       <c r="D210">
-        <v>130778</v>
+        <v>123582</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="B211" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="C211">
-        <v>51062</v>
+        <v>26535</v>
       </c>
       <c r="D211">
-        <v>153903</v>
+        <v>332134</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="B212" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="C212">
-        <v>47991</v>
+        <v>22864</v>
       </c>
       <c r="D212">
-        <v>48304</v>
+        <v>78957</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="B213" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="C213">
-        <v>44817</v>
+        <v>21635</v>
       </c>
       <c r="D213">
-        <v>91176</v>
+        <v>77894</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="B214" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="C214">
-        <v>34547.9</v>
+        <v>14914</v>
       </c>
       <c r="D214">
-        <v>96863</v>
+        <v>43820</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="B215" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="C215">
-        <v>1339899</v>
+        <v>13288</v>
       </c>
       <c r="D215">
-        <v>609773</v>
+        <v>30339</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="B216" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="C216">
-        <v>744420</v>
+        <v>9526</v>
       </c>
       <c r="D216">
-        <v>434156</v>
+        <v>147715</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1">
-        <v>215</v>
+        <v>289</v>
       </c>
       <c r="B217" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="C217">
-        <v>599558</v>
+        <v>240965</v>
       </c>
       <c r="D217">
-        <v>392415</v>
+        <v>245240</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1">
-        <v>216</v>
+        <v>290</v>
       </c>
       <c r="B218" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="C218">
-        <v>576505</v>
+        <v>205418</v>
       </c>
       <c r="D218">
-        <v>1285915</v>
+        <v>554897</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="B219" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="C219">
-        <v>573500</v>
+        <v>159824</v>
       </c>
       <c r="D219">
-        <v>480245</v>
+        <v>82230</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1">
-        <v>218</v>
+        <v>292</v>
       </c>
       <c r="B220" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="C220">
-        <v>485955.38</v>
+        <v>87942</v>
       </c>
       <c r="D220">
-        <v>226682</v>
+        <v>173604</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1">
-        <v>219</v>
+        <v>293</v>
       </c>
       <c r="B221" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="C221">
-        <v>450668</v>
+        <v>69759</v>
       </c>
       <c r="D221">
-        <v>530854</v>
+        <v>92818</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="B222" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="C222">
-        <v>450101</v>
+        <v>48300</v>
       </c>
       <c r="D222">
-        <v>319588</v>
+        <v>290382</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="B223" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="C223">
-        <v>415179</v>
+        <v>27184</v>
       </c>
       <c r="D223">
-        <v>308365</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="B224" t="s">
-        <v>189</v>
-      </c>
-      <c r="C224">
-        <v>402081</v>
-      </c>
-      <c r="D224">
-        <v>195142</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225" t="s">
-        <v>190</v>
-      </c>
-      <c r="C225">
-        <v>363034</v>
-      </c>
-      <c r="D225">
-        <v>107648</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226" t="s">
-        <v>191</v>
-      </c>
-      <c r="C226">
-        <v>354418.31</v>
-      </c>
-      <c r="D226">
-        <v>175367</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="B227" t="s">
-        <v>192</v>
-      </c>
-      <c r="C227">
-        <v>338770.02</v>
-      </c>
-      <c r="D227">
-        <v>319767</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228" t="s">
-        <v>193</v>
-      </c>
-      <c r="C228">
-        <v>337533</v>
-      </c>
-      <c r="D228">
-        <v>576026</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229" t="s">
-        <v>194</v>
-      </c>
-      <c r="C229">
-        <v>317816</v>
-      </c>
-      <c r="D229">
-        <v>300244</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230" t="s">
-        <v>195</v>
-      </c>
-      <c r="C230">
-        <v>307419</v>
-      </c>
-      <c r="D230">
-        <v>163131</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231" t="s">
-        <v>196</v>
-      </c>
-      <c r="C231">
-        <v>301891</v>
-      </c>
-      <c r="D231">
-        <v>64186</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232" t="s">
-        <v>197</v>
-      </c>
-      <c r="C232">
-        <v>298342</v>
-      </c>
-      <c r="D232">
-        <v>182979</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233" t="s">
-        <v>198</v>
-      </c>
-      <c r="C233">
-        <v>287212</v>
-      </c>
-      <c r="D233">
-        <v>306935</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234" t="s">
-        <v>199</v>
-      </c>
-      <c r="C234">
-        <v>279386.91</v>
-      </c>
-      <c r="D234">
-        <v>211906</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235" t="s">
-        <v>200</v>
-      </c>
-      <c r="C235">
-        <v>241138.38</v>
-      </c>
-      <c r="D235">
-        <v>179428</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236" t="s">
-        <v>201</v>
-      </c>
-      <c r="C236">
-        <v>224526.7</v>
-      </c>
-      <c r="D236">
-        <v>45921</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237" t="s">
-        <v>202</v>
-      </c>
-      <c r="C237">
-        <v>216231</v>
-      </c>
-      <c r="D237">
-        <v>295707</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238" t="s">
-        <v>203</v>
-      </c>
-      <c r="C238">
-        <v>191431</v>
-      </c>
-      <c r="D238">
-        <v>171046</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239" t="s">
-        <v>204</v>
-      </c>
-      <c r="C239">
-        <v>180697</v>
-      </c>
-      <c r="D239">
-        <v>112402</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240" t="s">
-        <v>205</v>
-      </c>
-      <c r="C240">
-        <v>176670</v>
-      </c>
-      <c r="D240">
-        <v>535404</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241" t="s">
-        <v>206</v>
-      </c>
-      <c r="C241">
-        <v>160176</v>
-      </c>
-      <c r="D241">
-        <v>352155.08</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242" t="s">
-        <v>207</v>
-      </c>
-      <c r="C242">
-        <v>157718</v>
-      </c>
-      <c r="D242">
-        <v>612565</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243" t="s">
-        <v>208</v>
-      </c>
-      <c r="C243">
-        <v>156640</v>
-      </c>
-      <c r="D243">
-        <v>32522</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" t="s">
-        <v>209</v>
-      </c>
-      <c r="C244">
-        <v>139350</v>
-      </c>
-      <c r="D244">
-        <v>716335</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245" t="s">
-        <v>210</v>
-      </c>
-      <c r="C245">
-        <v>136199</v>
-      </c>
-      <c r="D245">
-        <v>230722</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246" t="s">
-        <v>211</v>
-      </c>
-      <c r="C246">
-        <v>131482</v>
-      </c>
-      <c r="D246">
-        <v>154120</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247" t="s">
-        <v>212</v>
-      </c>
-      <c r="C247">
-        <v>125480</v>
-      </c>
-      <c r="D247">
-        <v>171375</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248" t="s">
-        <v>213</v>
-      </c>
-      <c r="C248">
-        <v>108491</v>
-      </c>
-      <c r="D248">
-        <v>140555</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249" t="s">
-        <v>214</v>
-      </c>
-      <c r="C249">
-        <v>107528</v>
-      </c>
-      <c r="D249">
-        <v>345964</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250" t="s">
-        <v>215</v>
-      </c>
-      <c r="C250">
-        <v>104742</v>
-      </c>
-      <c r="D250">
-        <v>63438</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251" t="s">
-        <v>216</v>
-      </c>
-      <c r="C251">
-        <v>102327</v>
-      </c>
-      <c r="D251">
-        <v>154710</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252" t="s">
-        <v>217</v>
-      </c>
-      <c r="C252">
-        <v>95797</v>
-      </c>
-      <c r="D252">
-        <v>213485</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253" t="s">
-        <v>218</v>
-      </c>
-      <c r="C253">
-        <v>87803</v>
-      </c>
-      <c r="D253">
-        <v>314566</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254" t="s">
-        <v>219</v>
-      </c>
-      <c r="C254">
-        <v>78454</v>
-      </c>
-      <c r="D254">
-        <v>98851</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255" t="s">
-        <v>220</v>
-      </c>
-      <c r="C255">
-        <v>76906</v>
-      </c>
-      <c r="D255">
-        <v>216259</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256" t="s">
-        <v>221</v>
-      </c>
-      <c r="C256">
-        <v>72555</v>
-      </c>
-      <c r="D256">
-        <v>267996</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257" t="s">
-        <v>222</v>
-      </c>
-      <c r="C257">
-        <v>72268.8</v>
-      </c>
-      <c r="D257">
-        <v>50919</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258" t="s">
-        <v>223</v>
-      </c>
-      <c r="C258">
-        <v>68922</v>
-      </c>
-      <c r="D258">
-        <v>159893</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259" t="s">
-        <v>224</v>
-      </c>
-      <c r="C259">
-        <v>64533</v>
-      </c>
-      <c r="D259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260" t="s">
-        <v>225</v>
-      </c>
-      <c r="C260">
-        <v>62437</v>
-      </c>
-      <c r="D260">
-        <v>231869</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261" t="s">
-        <v>226</v>
-      </c>
-      <c r="C261">
-        <v>59295</v>
-      </c>
-      <c r="D261">
-        <v>45776</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="1">
-        <v>260</v>
-      </c>
-      <c r="B262" t="s">
-        <v>227</v>
-      </c>
-      <c r="C262">
-        <v>58879</v>
-      </c>
-      <c r="D262">
-        <v>98645</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="1">
-        <v>261</v>
-      </c>
-      <c r="B263" t="s">
-        <v>228</v>
-      </c>
-      <c r="C263">
-        <v>58175</v>
-      </c>
-      <c r="D263">
-        <v>134462</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="1">
-        <v>262</v>
-      </c>
-      <c r="B264" t="s">
-        <v>229</v>
-      </c>
-      <c r="C264">
-        <v>56398</v>
-      </c>
-      <c r="D264">
-        <v>43269</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="1">
-        <v>263</v>
-      </c>
-      <c r="B265" t="s">
-        <v>230</v>
-      </c>
-      <c r="C265">
-        <v>54600</v>
-      </c>
-      <c r="D265">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="1">
-        <v>264</v>
-      </c>
-      <c r="B266" t="s">
-        <v>231</v>
-      </c>
-      <c r="C266">
-        <v>45738</v>
-      </c>
-      <c r="D266">
-        <v>24071</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="B267" t="s">
-        <v>232</v>
-      </c>
-      <c r="C267">
-        <v>42440</v>
-      </c>
-      <c r="D267">
-        <v>205218</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
-      <c r="B268" t="s">
-        <v>233</v>
-      </c>
-      <c r="C268">
-        <v>34243</v>
-      </c>
-      <c r="D268">
-        <v>241424</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="1">
-        <v>267</v>
-      </c>
-      <c r="B269" t="s">
-        <v>234</v>
-      </c>
-      <c r="C269">
-        <v>27800</v>
-      </c>
-      <c r="D269">
-        <v>97372</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="1">
-        <v>268</v>
-      </c>
-      <c r="B270" t="s">
-        <v>235</v>
-      </c>
-      <c r="C270">
-        <v>27770</v>
-      </c>
-      <c r="D270">
-        <v>123582</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="1">
-        <v>269</v>
-      </c>
-      <c r="B271" t="s">
-        <v>236</v>
-      </c>
-      <c r="C271">
-        <v>26535</v>
-      </c>
-      <c r="D271">
-        <v>332134</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="1">
-        <v>270</v>
-      </c>
-      <c r="B272" t="s">
-        <v>237</v>
-      </c>
-      <c r="C272">
-        <v>22864</v>
-      </c>
-      <c r="D272">
-        <v>78957</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="1">
-        <v>271</v>
-      </c>
-      <c r="B273" t="s">
-        <v>238</v>
-      </c>
-      <c r="C273">
-        <v>21635</v>
-      </c>
-      <c r="D273">
-        <v>77894</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="1">
-        <v>272</v>
-      </c>
-      <c r="B274" t="s">
-        <v>239</v>
-      </c>
-      <c r="C274">
-        <v>14914</v>
-      </c>
-      <c r="D274">
-        <v>43820</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="1">
-        <v>273</v>
-      </c>
-      <c r="B275" t="s">
-        <v>240</v>
-      </c>
-      <c r="C275">
-        <v>13288</v>
-      </c>
-      <c r="D275">
-        <v>30339</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="1">
-        <v>274</v>
-      </c>
-      <c r="B276" t="s">
-        <v>241</v>
-      </c>
-      <c r="C276">
-        <v>9526</v>
-      </c>
-      <c r="D276">
-        <v>147715</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="1">
-        <v>275</v>
-      </c>
-      <c r="B277" t="s">
-        <v>242</v>
-      </c>
-      <c r="C277">
-        <v>0</v>
-      </c>
-      <c r="D277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="1">
-        <v>276</v>
-      </c>
-      <c r="B278" t="s">
-        <v>243</v>
-      </c>
-      <c r="C278">
-        <v>0</v>
-      </c>
-      <c r="D278">
-        <v>385801</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="1">
-        <v>277</v>
-      </c>
-      <c r="B279" t="s">
-        <v>244</v>
-      </c>
-      <c r="C279">
-        <v>0</v>
-      </c>
-      <c r="D279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="1">
-        <v>278</v>
-      </c>
-      <c r="B280" t="s">
-        <v>245</v>
-      </c>
-      <c r="C280">
-        <v>0</v>
-      </c>
-      <c r="D280">
-        <v>185435</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="1">
-        <v>279</v>
-      </c>
-      <c r="B281" t="s">
-        <v>246</v>
-      </c>
-      <c r="C281">
-        <v>0</v>
-      </c>
-      <c r="D281">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="1">
-        <v>280</v>
-      </c>
-      <c r="B282" t="s">
-        <v>247</v>
-      </c>
-      <c r="C282">
-        <v>0</v>
-      </c>
-      <c r="D282">
-        <v>16860</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="1">
-        <v>281</v>
-      </c>
-      <c r="B283" t="s">
-        <v>248</v>
-      </c>
-      <c r="C283">
-        <v>0</v>
-      </c>
-      <c r="D283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="1">
-        <v>282</v>
-      </c>
-      <c r="B284" t="s">
-        <v>249</v>
-      </c>
-      <c r="C284">
-        <v>0</v>
-      </c>
-      <c r="D284">
-        <v>124500</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="1">
-        <v>283</v>
-      </c>
-      <c r="B285" t="s">
-        <v>250</v>
-      </c>
-      <c r="C285">
-        <v>0</v>
-      </c>
-      <c r="D285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="1">
-        <v>284</v>
-      </c>
-      <c r="B286" t="s">
-        <v>251</v>
-      </c>
-      <c r="C286">
-        <v>0</v>
-      </c>
-      <c r="D286">
-        <v>201316</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="1">
-        <v>285</v>
-      </c>
-      <c r="B287" t="s">
-        <v>252</v>
-      </c>
-      <c r="C287">
-        <v>0</v>
-      </c>
-      <c r="D287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="1">
-        <v>286</v>
-      </c>
-      <c r="B288" t="s">
-        <v>253</v>
-      </c>
-      <c r="C288">
-        <v>0</v>
-      </c>
-      <c r="D288">
-        <v>30827</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="1">
-        <v>287</v>
-      </c>
-      <c r="B289" t="s">
-        <v>254</v>
-      </c>
-      <c r="C289">
-        <v>0</v>
-      </c>
-      <c r="D289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="1">
-        <v>288</v>
-      </c>
-      <c r="B290" t="s">
-        <v>255</v>
-      </c>
-      <c r="C290">
-        <v>0</v>
-      </c>
-      <c r="D290">
-        <v>42270</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="1">
-        <v>289</v>
-      </c>
-      <c r="B291" t="s">
-        <v>256</v>
-      </c>
-      <c r="C291">
-        <v>240965</v>
-      </c>
-      <c r="D291">
-        <v>245240</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="1">
-        <v>290</v>
-      </c>
-      <c r="B292" t="s">
-        <v>257</v>
-      </c>
-      <c r="C292">
-        <v>205418</v>
-      </c>
-      <c r="D292">
-        <v>554897</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="1">
-        <v>291</v>
-      </c>
-      <c r="B293" t="s">
-        <v>258</v>
-      </c>
-      <c r="C293">
-        <v>159824</v>
-      </c>
-      <c r="D293">
-        <v>82230</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="1">
-        <v>292</v>
-      </c>
-      <c r="B294" t="s">
-        <v>259</v>
-      </c>
-      <c r="C294">
-        <v>87942</v>
-      </c>
-      <c r="D294">
-        <v>173604</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="1">
-        <v>293</v>
-      </c>
-      <c r="B295" t="s">
-        <v>260</v>
-      </c>
-      <c r="C295">
-        <v>69759</v>
-      </c>
-      <c r="D295">
-        <v>92818</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="1">
-        <v>294</v>
-      </c>
-      <c r="B296" t="s">
-        <v>261</v>
-      </c>
-      <c r="C296">
-        <v>48300</v>
-      </c>
-      <c r="D296">
-        <v>290382</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="1">
-        <v>295</v>
-      </c>
-      <c r="B297" t="s">
-        <v>262</v>
-      </c>
-      <c r="C297">
-        <v>27184</v>
-      </c>
-      <c r="D297">
         <v>27777</v>
       </c>
     </row>
